--- a/docs/assets/data/xlexamples/opioidemscalls_v2.xlsx
+++ b/docs/assets/data/xlexamples/opioidemscalls_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shcohen1/Documents/GitHub/cronkite-docs/docs/assets/data/xlexamples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F444B4-AD12-AD42-B225-CAFFBF0A560E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA0DB2D6-2C9D-C448-8D87-0DF425B1FCF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31340" yWindow="1740" windowWidth="28800" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31340" yWindow="1740" windowWidth="17580" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="opioidemscalls" sheetId="1" r:id="rId1"/>
@@ -1457,8 +1457,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="2">
-    <numFmt numFmtId="170" formatCode="mmm\.\ d\,\ yyyy\ h:mm\ AM/PM"/>
-    <numFmt numFmtId="171" formatCode="[$-409]h:mm\ AM/PM;@"/>
+    <numFmt numFmtId="164" formatCode="mmm\.\ d\,\ yyyy\ h:mm\ AM/PM"/>
+    <numFmt numFmtId="165" formatCode="[$-409]h:mm\ AM/PM;@"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -1949,13 +1949,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2010,25 +2010,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="171" formatCode="[$-409]h:mm\ AM/PM;@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yy"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="mmm\.\ d\,\ yyyy\ h:mm\ AM/PM"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2053,6 +2034,25 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$-409]h:mm\ AM/PM;@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yy"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="mmm\.\ d\,\ yyyy\ h:mm\ AM/PM"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2115,24 +2115,24 @@
   </sortState>
   <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="OBJECTID" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="inc_date_time" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="day_of_week" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{44671C7A-A062-DF4B-9789-509F93D5F54A}" name="date" dataDxfId="2">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="inc_date_time" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="day_of_week" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{44671C7A-A062-DF4B-9789-509F93D5F54A}" name="date" dataDxfId="12">
       <calculatedColumnFormula>FLOOR(Table1[[#This Row],[inc_date_time]],1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{C6CADF97-C347-054C-B9C2-01328E8AA9A2}" name="hour" dataDxfId="1">
+    <tableColumn id="20" xr3:uid="{C6CADF97-C347-054C-B9C2-01328E8AA9A2}" name="hour" dataDxfId="11">
       <calculatedColumnFormula>FLOOR(B2-D2,1/24)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{9C6BBB22-97AA-C24C-9C03-3E5C7A4A3BEE}" name="weekend" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="probable_opioid_use" dataDxfId="14"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="primary_impression" dataDxfId="13"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="medications_given_list" dataDxfId="12"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="narcan given" dataDxfId="11"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="gender" dataDxfId="10"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="asu student" dataDxfId="9"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="veteran" dataDxfId="8"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="homeless" dataDxfId="7"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Current_Medications_List" dataDxfId="6"/>
+    <tableColumn id="18" xr3:uid="{9C6BBB22-97AA-C24C-9C03-3E5C7A4A3BEE}" name="weekend" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="probable_opioid_use" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="primary_impression" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="medications_given_list" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="narcan given" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="gender" dataDxfId="5"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="asu student" dataDxfId="4"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="veteran" dataDxfId="3"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="homeless" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Current_Medications_List" dataDxfId="1"/>
     <tableColumn id="21" xr3:uid="{7CB11BBE-173D-8D4F-B1BE-C05344F06684}" name="overdose_or_death" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2438,8 +2438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P651"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2528,7 +2528,7 @@
         <v>43084</v>
       </c>
       <c r="E2" s="5">
-        <f>FLOOR(B2-D2,1/24)</f>
+        <f t="shared" ref="E2:E65" si="0">FLOOR(B2-D2,1/24)</f>
         <v>0.70833333333333326</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -2580,7 +2580,7 @@
         <v>42783</v>
       </c>
       <c r="E3" s="5">
-        <f>FLOOR(B3-D3,1/24)</f>
+        <f t="shared" si="0"/>
         <v>0.70833333333333326</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -2632,7 +2632,7 @@
         <v>42965</v>
       </c>
       <c r="E4" s="5">
-        <f>FLOOR(B4-D4,1/24)</f>
+        <f t="shared" si="0"/>
         <v>0.70833333333333326</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -2684,7 +2684,7 @@
         <v>42909</v>
       </c>
       <c r="E5" s="5">
-        <f>FLOOR(B5-D5,1/24)</f>
+        <f t="shared" si="0"/>
         <v>0.70833333333333326</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -2736,7 +2736,7 @@
         <v>42867</v>
       </c>
       <c r="E6" s="5">
-        <f>FLOOR(B6-D6,1/24)</f>
+        <f t="shared" si="0"/>
         <v>0.70833333333333326</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -2788,7 +2788,7 @@
         <v>43161</v>
       </c>
       <c r="E7" s="5">
-        <f>FLOOR(B7-D7,1/24)</f>
+        <f t="shared" si="0"/>
         <v>0.70833333333333326</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -2840,7 +2840,7 @@
         <v>43175</v>
       </c>
       <c r="E8" s="5">
-        <f>FLOOR(B8-D8,1/24)</f>
+        <f t="shared" si="0"/>
         <v>0.70833333333333326</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -2892,7 +2892,7 @@
         <v>43112</v>
       </c>
       <c r="E9" s="5">
-        <f>FLOOR(B9-D9,1/24)</f>
+        <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -2944,7 +2944,7 @@
         <v>43273</v>
       </c>
       <c r="E10" s="5">
-        <f>FLOOR(B10-D10,1/24)</f>
+        <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -2996,7 +2996,7 @@
         <v>43098</v>
       </c>
       <c r="E11" s="5">
-        <f>FLOOR(B11-D11,1/24)</f>
+        <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
       <c r="F11" s="1" t="s">
@@ -3048,7 +3048,7 @@
         <v>42993</v>
       </c>
       <c r="E12" s="5">
-        <f>FLOOR(B12-D12,1/24)</f>
+        <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
       <c r="F12" s="1" t="s">
@@ -3100,7 +3100,7 @@
         <v>43224</v>
       </c>
       <c r="E13" s="5">
-        <f>FLOOR(B13-D13,1/24)</f>
+        <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
       <c r="F13" s="1" t="s">
@@ -3152,7 +3152,7 @@
         <v>42944</v>
       </c>
       <c r="E14" s="5">
-        <f>FLOOR(B14-D14,1/24)</f>
+        <f t="shared" si="0"/>
         <v>0.79166666666666663</v>
       </c>
       <c r="F14" s="1" t="s">
@@ -3204,7 +3204,7 @@
         <v>42979</v>
       </c>
       <c r="E15" s="5">
-        <f>FLOOR(B15-D15,1/24)</f>
+        <f t="shared" si="0"/>
         <v>0.79166666666666663</v>
       </c>
       <c r="F15" s="1" t="s">
@@ -3256,7 +3256,7 @@
         <v>43000</v>
       </c>
       <c r="E16" s="5">
-        <f>FLOOR(B16-D16,1/24)</f>
+        <f t="shared" si="0"/>
         <v>0.83333333333333326</v>
       </c>
       <c r="F16" s="1" t="s">
@@ -3308,7 +3308,7 @@
         <v>42783</v>
       </c>
       <c r="E17" s="5">
-        <f>FLOOR(B17-D17,1/24)</f>
+        <f t="shared" si="0"/>
         <v>0.83333333333333326</v>
       </c>
       <c r="F17" s="1" t="s">
@@ -3360,7 +3360,7 @@
         <v>43105</v>
       </c>
       <c r="E18" s="5">
-        <f>FLOOR(B18-D18,1/24)</f>
+        <f t="shared" si="0"/>
         <v>0.83333333333333326</v>
       </c>
       <c r="F18" s="1" t="s">
@@ -3412,7 +3412,7 @@
         <v>43098</v>
       </c>
       <c r="E19" s="5">
-        <f>FLOOR(B19-D19,1/24)</f>
+        <f t="shared" si="0"/>
         <v>0.83333333333333326</v>
       </c>
       <c r="F19" s="1" t="s">
@@ -3464,7 +3464,7 @@
         <v>42769</v>
       </c>
       <c r="E20" s="5">
-        <f>FLOOR(B20-D20,1/24)</f>
+        <f t="shared" si="0"/>
         <v>0.83333333333333326</v>
       </c>
       <c r="F20" s="1" t="s">
@@ -3516,7 +3516,7 @@
         <v>42867</v>
       </c>
       <c r="E21" s="5">
-        <f>FLOOR(B21-D21,1/24)</f>
+        <f t="shared" si="0"/>
         <v>0.83333333333333326</v>
       </c>
       <c r="F21" s="1" t="s">
@@ -3568,7 +3568,7 @@
         <v>42783</v>
       </c>
       <c r="E22" s="5">
-        <f>FLOOR(B22-D22,1/24)</f>
+        <f t="shared" si="0"/>
         <v>0.83333333333333326</v>
       </c>
       <c r="F22" s="1" t="s">
@@ -3620,7 +3620,7 @@
         <v>43266</v>
       </c>
       <c r="E23" s="5">
-        <f>FLOOR(B23-D23,1/24)</f>
+        <f t="shared" si="0"/>
         <v>0.875</v>
       </c>
       <c r="F23" s="1" t="s">
@@ -3672,7 +3672,7 @@
         <v>43175</v>
       </c>
       <c r="E24" s="5">
-        <f>FLOOR(B24-D24,1/24)</f>
+        <f t="shared" si="0"/>
         <v>0.875</v>
       </c>
       <c r="F24" s="1" t="s">
@@ -3709,7 +3709,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>609</v>
       </c>
@@ -3724,7 +3724,7 @@
         <v>43238</v>
       </c>
       <c r="E25" s="5">
-        <f>FLOOR(B25-D25,1/24)</f>
+        <f t="shared" si="0"/>
         <v>0.875</v>
       </c>
       <c r="F25" s="1" t="s">
@@ -3776,7 +3776,7 @@
         <v>42979</v>
       </c>
       <c r="E26" s="5">
-        <f>FLOOR(B26-D26,1/24)</f>
+        <f t="shared" si="0"/>
         <v>0.91666666666666663</v>
       </c>
       <c r="F26" s="1" t="s">
@@ -3828,7 +3828,7 @@
         <v>43007</v>
       </c>
       <c r="E27" s="5">
-        <f>FLOOR(B27-D27,1/24)</f>
+        <f t="shared" si="0"/>
         <v>0.91666666666666663</v>
       </c>
       <c r="F27" s="1" t="s">
@@ -3880,7 +3880,7 @@
         <v>42818</v>
       </c>
       <c r="E28" s="5">
-        <f>FLOOR(B28-D28,1/24)</f>
+        <f t="shared" si="0"/>
         <v>0.91666666666666663</v>
       </c>
       <c r="F28" s="1" t="s">
@@ -3932,7 +3932,7 @@
         <v>43210</v>
       </c>
       <c r="E29" s="5">
-        <f>FLOOR(B29-D29,1/24)</f>
+        <f t="shared" si="0"/>
         <v>0.91666666666666663</v>
       </c>
       <c r="F29" s="1" t="s">
@@ -3984,7 +3984,7 @@
         <v>42951</v>
       </c>
       <c r="E30" s="5">
-        <f>FLOOR(B30-D30,1/24)</f>
+        <f t="shared" si="0"/>
         <v>0.91666666666666663</v>
       </c>
       <c r="F30" s="1" t="s">
@@ -4021,7 +4021,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>484</v>
       </c>
@@ -4036,7 +4036,7 @@
         <v>43147</v>
       </c>
       <c r="E31" s="5">
-        <f>FLOOR(B31-D31,1/24)</f>
+        <f t="shared" si="0"/>
         <v>0.95833333333333326</v>
       </c>
       <c r="F31" s="1" t="s">
@@ -4073,7 +4073,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>391</v>
       </c>
@@ -4088,7 +4088,7 @@
         <v>43057</v>
       </c>
       <c r="E32" s="5">
-        <f>FLOOR(B32-D32,1/24)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F32" s="1" t="s">
@@ -4125,7 +4125,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>455</v>
       </c>
@@ -4140,7 +4140,7 @@
         <v>43113</v>
       </c>
       <c r="E33" s="5">
-        <f>FLOOR(B33-D33,1/24)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F33" s="1" t="s">
@@ -4177,7 +4177,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>353</v>
       </c>
@@ -4192,7 +4192,7 @@
         <v>43022</v>
       </c>
       <c r="E34" s="5">
-        <f>FLOOR(B34-D34,1/24)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F34" s="1" t="s">
@@ -4244,7 +4244,7 @@
         <v>43071</v>
       </c>
       <c r="E35" s="5">
-        <f>FLOOR(B35-D35,1/24)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F35" s="1" t="s">
@@ -4296,7 +4296,7 @@
         <v>43239</v>
       </c>
       <c r="E36" s="5">
-        <f>FLOOR(B36-D36,1/24)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F36" s="1" t="s">
@@ -4333,7 +4333,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>450</v>
       </c>
@@ -4348,7 +4348,7 @@
         <v>43106</v>
       </c>
       <c r="E37" s="5">
-        <f>FLOOR(B37-D37,1/24)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F37" s="1" t="s">
@@ -4385,7 +4385,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>505</v>
       </c>
@@ -4400,7 +4400,7 @@
         <v>43197</v>
       </c>
       <c r="E38" s="5">
-        <f>FLOOR(B38-D38,1/24)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F38" s="1" t="s">
@@ -4437,7 +4437,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>294</v>
       </c>
@@ -4452,7 +4452,7 @@
         <v>42966</v>
       </c>
       <c r="E39" s="5">
-        <f>FLOOR(B39-D39,1/24)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F39" s="1" t="s">
@@ -4504,7 +4504,7 @@
         <v>43155</v>
       </c>
       <c r="E40" s="5">
-        <f>FLOOR(B40-D40,1/24)</f>
+        <f t="shared" si="0"/>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F40" s="1" t="s">
@@ -4541,7 +4541,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>94</v>
       </c>
@@ -4556,7 +4556,7 @@
         <v>42826</v>
       </c>
       <c r="E41" s="5">
-        <f>FLOOR(B41-D41,1/24)</f>
+        <f t="shared" si="0"/>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F41" s="1" t="s">
@@ -4593,7 +4593,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>271</v>
       </c>
@@ -4608,7 +4608,7 @@
         <v>42945</v>
       </c>
       <c r="E42" s="5">
-        <f>FLOOR(B42-D42,1/24)</f>
+        <f t="shared" si="0"/>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="F42" s="1" t="s">
@@ -4660,7 +4660,7 @@
         <v>42763</v>
       </c>
       <c r="E43" s="5">
-        <f>FLOOR(B43-D43,1/24)</f>
+        <f t="shared" si="0"/>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="F43" s="1" t="s">
@@ -4712,7 +4712,7 @@
         <v>43260</v>
       </c>
       <c r="E44" s="5">
-        <f>FLOOR(B44-D44,1/24)</f>
+        <f t="shared" si="0"/>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="F44" s="1" t="s">
@@ -4749,7 +4749,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>160</v>
       </c>
@@ -4764,7 +4764,7 @@
         <v>42868</v>
       </c>
       <c r="E45" s="5">
-        <f>FLOOR(B45-D45,1/24)</f>
+        <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
       <c r="F45" s="1" t="s">
@@ -4801,7 +4801,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>116</v>
       </c>
@@ -4816,7 +4816,7 @@
         <v>42840</v>
       </c>
       <c r="E46" s="5">
-        <f>FLOOR(B46-D46,1/24)</f>
+        <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
       <c r="F46" s="1" t="s">
@@ -4853,7 +4853,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>393</v>
       </c>
@@ -4868,7 +4868,7 @@
         <v>43057</v>
       </c>
       <c r="E47" s="5">
-        <f>FLOOR(B47-D47,1/24)</f>
+        <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="F47" s="1" t="s">
@@ -4905,7 +4905,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>572</v>
       </c>
@@ -4920,7 +4920,7 @@
         <v>43176</v>
       </c>
       <c r="E48" s="5">
-        <f>FLOOR(B48-D48,1/24)</f>
+        <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="F48" s="1" t="s">
@@ -4972,7 +4972,7 @@
         <v>42917</v>
       </c>
       <c r="E49" s="5">
-        <f>FLOOR(B49-D49,1/24)</f>
+        <f t="shared" si="0"/>
         <v>0.20833333333333331</v>
       </c>
       <c r="F49" s="1" t="s">
@@ -5009,7 +5009,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>399</v>
       </c>
@@ -5024,7 +5024,7 @@
         <v>43064</v>
       </c>
       <c r="E50" s="5">
-        <f>FLOOR(B50-D50,1/24)</f>
+        <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
       <c r="F50" s="1" t="s">
@@ -5061,7 +5061,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>145</v>
       </c>
@@ -5076,7 +5076,7 @@
         <v>42861</v>
       </c>
       <c r="E51" s="5">
-        <f>FLOOR(B51-D51,1/24)</f>
+        <f t="shared" si="0"/>
         <v>0.29166666666666663</v>
       </c>
       <c r="F51" s="1" t="s">
@@ -5113,7 +5113,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>176</v>
       </c>
@@ -5128,7 +5128,7 @@
         <v>42882</v>
       </c>
       <c r="E52" s="5">
-        <f>FLOOR(B52-D52,1/24)</f>
+        <f t="shared" si="0"/>
         <v>0.29166666666666663</v>
       </c>
       <c r="F52" s="1" t="s">
@@ -5165,7 +5165,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="53" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>382</v>
       </c>
@@ -5180,7 +5180,7 @@
         <v>43050</v>
       </c>
       <c r="E53" s="5">
-        <f>FLOOR(B53-D53,1/24)</f>
+        <f t="shared" si="0"/>
         <v>0.29166666666666663</v>
       </c>
       <c r="F53" s="1" t="s">
@@ -5217,7 +5217,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="54" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>432</v>
       </c>
@@ -5232,7 +5232,7 @@
         <v>43092</v>
       </c>
       <c r="E54" s="5">
-        <f>FLOOR(B54-D54,1/24)</f>
+        <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="F54" s="1" t="s">
@@ -5284,7 +5284,7 @@
         <v>43176</v>
       </c>
       <c r="E55" s="5">
-        <f>FLOOR(B55-D55,1/24)</f>
+        <f t="shared" si="0"/>
         <v>0.375</v>
       </c>
       <c r="F55" s="1" t="s">
@@ -5336,7 +5336,7 @@
         <v>42875</v>
       </c>
       <c r="E56" s="5">
-        <f>FLOOR(B56-D56,1/24)</f>
+        <f t="shared" si="0"/>
         <v>0.375</v>
       </c>
       <c r="F56" s="1" t="s">
@@ -5373,7 +5373,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="57" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>383</v>
       </c>
@@ -5388,7 +5388,7 @@
         <v>43050</v>
       </c>
       <c r="E57" s="5">
-        <f>FLOOR(B57-D57,1/24)</f>
+        <f t="shared" si="0"/>
         <v>0.375</v>
       </c>
       <c r="F57" s="1" t="s">
@@ -5425,7 +5425,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="58" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>539</v>
       </c>
@@ -5440,7 +5440,7 @@
         <v>43218</v>
       </c>
       <c r="E58" s="5">
-        <f>FLOOR(B58-D58,1/24)</f>
+        <f t="shared" si="0"/>
         <v>0.375</v>
       </c>
       <c r="F58" s="1" t="s">
@@ -5492,7 +5492,7 @@
         <v>43169</v>
       </c>
       <c r="E59" s="5">
-        <f>FLOOR(B59-D59,1/24)</f>
+        <f t="shared" si="0"/>
         <v>0.375</v>
       </c>
       <c r="F59" s="1" t="s">
@@ -5544,7 +5544,7 @@
         <v>42889</v>
       </c>
       <c r="E60" s="5">
-        <f>FLOOR(B60-D60,1/24)</f>
+        <f t="shared" si="0"/>
         <v>0.41666666666666663</v>
       </c>
       <c r="F60" s="1" t="s">
@@ -5596,7 +5596,7 @@
         <v>42966</v>
       </c>
       <c r="E61" s="5">
-        <f>FLOOR(B61-D61,1/24)</f>
+        <f t="shared" si="0"/>
         <v>0.41666666666666663</v>
       </c>
       <c r="F61" s="1" t="s">
@@ -5633,7 +5633,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="62" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>183</v>
       </c>
@@ -5648,7 +5648,7 @@
         <v>42889</v>
       </c>
       <c r="E62" s="5">
-        <f>FLOOR(B62-D62,1/24)</f>
+        <f t="shared" si="0"/>
         <v>0.41666666666666663</v>
       </c>
       <c r="F62" s="1" t="s">
@@ -5700,7 +5700,7 @@
         <v>42833</v>
       </c>
       <c r="E63" s="5">
-        <f>FLOOR(B63-D63,1/24)</f>
+        <f t="shared" si="0"/>
         <v>0.41666666666666663</v>
       </c>
       <c r="F63" s="1" t="s">
@@ -5752,7 +5752,7 @@
         <v>42791</v>
       </c>
       <c r="E64" s="5">
-        <f>FLOOR(B64-D64,1/24)</f>
+        <f t="shared" si="0"/>
         <v>0.45833333333333331</v>
       </c>
       <c r="F64" s="1" t="s">
@@ -5789,7 +5789,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="65" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>117</v>
       </c>
@@ -5804,7 +5804,7 @@
         <v>42840</v>
       </c>
       <c r="E65" s="5">
-        <f>FLOOR(B65-D65,1/24)</f>
+        <f t="shared" si="0"/>
         <v>0.45833333333333331</v>
       </c>
       <c r="F65" s="1" t="s">
@@ -5856,7 +5856,7 @@
         <v>42980</v>
       </c>
       <c r="E66" s="5">
-        <f>FLOOR(B66-D66,1/24)</f>
+        <f t="shared" ref="E66:E129" si="1">FLOOR(B66-D66,1/24)</f>
         <v>0.45833333333333331</v>
       </c>
       <c r="F66" s="1" t="s">
@@ -5908,7 +5908,7 @@
         <v>43232</v>
       </c>
       <c r="E67" s="5">
-        <f>FLOOR(B67-D67,1/24)</f>
+        <f t="shared" si="1"/>
         <v>0.45833333333333331</v>
       </c>
       <c r="F67" s="1" t="s">
@@ -5960,7 +5960,7 @@
         <v>43127</v>
       </c>
       <c r="E68" s="5">
-        <f>FLOOR(B68-D68,1/24)</f>
+        <f t="shared" si="1"/>
         <v>0.45833333333333331</v>
       </c>
       <c r="F68" s="1" t="s">
@@ -5997,7 +5997,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="69" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>412</v>
       </c>
@@ -6012,7 +6012,7 @@
         <v>43071</v>
       </c>
       <c r="E69" s="5">
-        <f>FLOOR(B69-D69,1/24)</f>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="F69" s="1" t="s">
@@ -6049,7 +6049,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="70" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>490</v>
       </c>
@@ -6064,7 +6064,7 @@
         <v>43155</v>
       </c>
       <c r="E70" s="5">
-        <f>FLOOR(B70-D70,1/24)</f>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="F70" s="1" t="s">
@@ -6101,7 +6101,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="71" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>462</v>
       </c>
@@ -6116,7 +6116,7 @@
         <v>43120</v>
       </c>
       <c r="E71" s="5">
-        <f>FLOOR(B71-D71,1/24)</f>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="F71" s="1" t="s">
@@ -6153,7 +6153,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="72" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>146</v>
       </c>
@@ -6168,7 +6168,7 @@
         <v>42861</v>
       </c>
       <c r="E72" s="5">
-        <f>FLOOR(B72-D72,1/24)</f>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="F72" s="1" t="s">
@@ -6220,7 +6220,7 @@
         <v>43085</v>
       </c>
       <c r="E73" s="5">
-        <f>FLOOR(B73-D73,1/24)</f>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="F73" s="1" t="s">
@@ -6272,7 +6272,7 @@
         <v>43253</v>
       </c>
       <c r="E74" s="5">
-        <f>FLOOR(B74-D74,1/24)</f>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="F74" s="1" t="s">
@@ -6309,7 +6309,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="75" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>548</v>
       </c>
@@ -6324,7 +6324,7 @@
         <v>43162</v>
       </c>
       <c r="E75" s="5">
-        <f>FLOOR(B75-D75,1/24)</f>
+        <f t="shared" si="1"/>
         <v>0.54166666666666663</v>
       </c>
       <c r="F75" s="1" t="s">
@@ -6376,7 +6376,7 @@
         <v>42903</v>
       </c>
       <c r="E76" s="5">
-        <f>FLOOR(B76-D76,1/24)</f>
+        <f t="shared" si="1"/>
         <v>0.54166666666666663</v>
       </c>
       <c r="F76" s="1" t="s">
@@ -6428,7 +6428,7 @@
         <v>43022</v>
       </c>
       <c r="E77" s="5">
-        <f>FLOOR(B77-D77,1/24)</f>
+        <f t="shared" si="1"/>
         <v>0.54166666666666663</v>
       </c>
       <c r="F77" s="1" t="s">
@@ -6480,7 +6480,7 @@
         <v>42945</v>
       </c>
       <c r="E78" s="5">
-        <f>FLOOR(B78-D78,1/24)</f>
+        <f t="shared" si="1"/>
         <v>0.54166666666666663</v>
       </c>
       <c r="F78" s="1" t="s">
@@ -6517,7 +6517,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="79" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>105</v>
       </c>
@@ -6532,7 +6532,7 @@
         <v>42833</v>
       </c>
       <c r="E79" s="5">
-        <f>FLOOR(B79-D79,1/24)</f>
+        <f t="shared" si="1"/>
         <v>0.54166666666666663</v>
       </c>
       <c r="F79" s="1" t="s">
@@ -6569,7 +6569,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="80" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>38</v>
       </c>
@@ -6584,7 +6584,7 @@
         <v>42770</v>
       </c>
       <c r="E80" s="5">
-        <f>FLOOR(B80-D80,1/24)</f>
+        <f t="shared" si="1"/>
         <v>0.54166666666666663</v>
       </c>
       <c r="F80" s="1" t="s">
@@ -6621,7 +6621,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="81" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>520</v>
       </c>
@@ -6636,7 +6636,7 @@
         <v>43204</v>
       </c>
       <c r="E81" s="5">
-        <f>FLOOR(B81-D81,1/24)</f>
+        <f t="shared" si="1"/>
         <v>0.54166666666666663</v>
       </c>
       <c r="F81" s="1" t="s">
@@ -6673,7 +6673,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="82" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>184</v>
       </c>
@@ -6688,7 +6688,7 @@
         <v>42889</v>
       </c>
       <c r="E82" s="5">
-        <f>FLOOR(B82-D82,1/24)</f>
+        <f t="shared" si="1"/>
         <v>0.54166666666666663</v>
       </c>
       <c r="F82" s="1" t="s">
@@ -6725,7 +6725,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="83" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>377</v>
       </c>
@@ -6740,7 +6740,7 @@
         <v>43043</v>
       </c>
       <c r="E83" s="5">
-        <f>FLOOR(B83-D83,1/24)</f>
+        <f t="shared" si="1"/>
         <v>0.54166666666666663</v>
       </c>
       <c r="F83" s="1" t="s">
@@ -6777,7 +6777,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="84" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>384</v>
       </c>
@@ -6792,7 +6792,7 @@
         <v>43050</v>
       </c>
       <c r="E84" s="5">
-        <f>FLOOR(B84-D84,1/24)</f>
+        <f t="shared" si="1"/>
         <v>0.54166666666666663</v>
       </c>
       <c r="F84" s="1" t="s">
@@ -6829,7 +6829,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="85" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>161</v>
       </c>
@@ -6844,7 +6844,7 @@
         <v>42868</v>
       </c>
       <c r="E85" s="5">
-        <f>FLOOR(B85-D85,1/24)</f>
+        <f t="shared" si="1"/>
         <v>0.54166666666666663</v>
       </c>
       <c r="F85" s="1" t="s">
@@ -6881,7 +6881,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="86" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>332</v>
       </c>
@@ -6896,7 +6896,7 @@
         <v>43001</v>
       </c>
       <c r="E86" s="5">
-        <f>FLOOR(B86-D86,1/24)</f>
+        <f t="shared" si="1"/>
         <v>0.54166666666666663</v>
       </c>
       <c r="F86" s="1" t="s">
@@ -6948,7 +6948,7 @@
         <v>43155</v>
       </c>
       <c r="E87" s="5">
-        <f>FLOOR(B87-D87,1/24)</f>
+        <f t="shared" si="1"/>
         <v>0.58333333333333326</v>
       </c>
       <c r="F87" s="1" t="s">
@@ -6985,7 +6985,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="88" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>106</v>
       </c>
@@ -7000,7 +7000,7 @@
         <v>42833</v>
       </c>
       <c r="E88" s="5">
-        <f>FLOOR(B88-D88,1/24)</f>
+        <f t="shared" si="1"/>
         <v>0.58333333333333326</v>
       </c>
       <c r="F88" s="1" t="s">
@@ -7037,7 +7037,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="89" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>89</v>
       </c>
@@ -7052,7 +7052,7 @@
         <v>42819</v>
       </c>
       <c r="E89" s="5">
-        <f>FLOOR(B89-D89,1/24)</f>
+        <f t="shared" si="1"/>
         <v>0.58333333333333326</v>
       </c>
       <c r="F89" s="1" t="s">
@@ -7089,7 +7089,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="90" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>213</v>
       </c>
@@ -7104,7 +7104,7 @@
         <v>42910</v>
       </c>
       <c r="E90" s="5">
-        <f>FLOOR(B90-D90,1/24)</f>
+        <f t="shared" si="1"/>
         <v>0.58333333333333326</v>
       </c>
       <c r="F90" s="1" t="s">
@@ -7141,7 +7141,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="91" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>355</v>
       </c>
@@ -7156,7 +7156,7 @@
         <v>43022</v>
       </c>
       <c r="E91" s="5">
-        <f>FLOOR(B91-D91,1/24)</f>
+        <f t="shared" si="1"/>
         <v>0.58333333333333326</v>
       </c>
       <c r="F91" s="1" t="s">
@@ -7208,7 +7208,7 @@
         <v>42889</v>
       </c>
       <c r="E92" s="5">
-        <f>FLOOR(B92-D92,1/24)</f>
+        <f t="shared" si="1"/>
         <v>0.625</v>
       </c>
       <c r="F92" s="1" t="s">
@@ -7260,7 +7260,7 @@
         <v>43162</v>
       </c>
       <c r="E93" s="5">
-        <f>FLOOR(B93-D93,1/24)</f>
+        <f t="shared" si="1"/>
         <v>0.625</v>
       </c>
       <c r="F93" s="1" t="s">
@@ -7297,7 +7297,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="94" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>341</v>
       </c>
@@ -7312,7 +7312,7 @@
         <v>43008</v>
       </c>
       <c r="E94" s="5">
-        <f>FLOOR(B94-D94,1/24)</f>
+        <f t="shared" si="1"/>
         <v>0.625</v>
       </c>
       <c r="F94" s="1" t="s">
@@ -7349,7 +7349,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="95" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>526</v>
       </c>
@@ -7364,7 +7364,7 @@
         <v>43211</v>
       </c>
       <c r="E95" s="5">
-        <f>FLOOR(B95-D95,1/24)</f>
+        <f t="shared" si="1"/>
         <v>0.625</v>
       </c>
       <c r="F95" s="1" t="s">
@@ -7401,7 +7401,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="96" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>586</v>
       </c>
@@ -7416,7 +7416,7 @@
         <v>43190</v>
       </c>
       <c r="E96" s="5">
-        <f>FLOOR(B96-D96,1/24)</f>
+        <f t="shared" si="1"/>
         <v>0.625</v>
       </c>
       <c r="F96" s="1" t="s">
@@ -7468,7 +7468,7 @@
         <v>42931</v>
       </c>
       <c r="E97" s="5">
-        <f>FLOOR(B97-D97,1/24)</f>
+        <f t="shared" si="1"/>
         <v>0.625</v>
       </c>
       <c r="F97" s="1" t="s">
@@ -7505,7 +7505,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="98" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>418</v>
       </c>
@@ -7520,7 +7520,7 @@
         <v>43078</v>
       </c>
       <c r="E98" s="5">
-        <f>FLOOR(B98-D98,1/24)</f>
+        <f t="shared" si="1"/>
         <v>0.625</v>
       </c>
       <c r="F98" s="1" t="s">
@@ -7572,7 +7572,7 @@
         <v>43197</v>
       </c>
       <c r="E99" s="5">
-        <f>FLOOR(B99-D99,1/24)</f>
+        <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="F99" s="1" t="s">
@@ -7624,7 +7624,7 @@
         <v>43078</v>
       </c>
       <c r="E100" s="5">
-        <f>FLOOR(B100-D100,1/24)</f>
+        <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="F100" s="1" t="s">
@@ -7661,7 +7661,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="101" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>587</v>
       </c>
@@ -7676,7 +7676,7 @@
         <v>43190</v>
       </c>
       <c r="E101" s="5">
-        <f>FLOOR(B101-D101,1/24)</f>
+        <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="F101" s="1" t="s">
@@ -7713,7 +7713,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="102" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>635</v>
       </c>
@@ -7728,7 +7728,7 @@
         <v>43260</v>
       </c>
       <c r="E102" s="5">
-        <f>FLOOR(B102-D102,1/24)</f>
+        <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="F102" s="1" t="s">
@@ -7780,7 +7780,7 @@
         <v>42784</v>
       </c>
       <c r="E103" s="5">
-        <f>FLOOR(B103-D103,1/24)</f>
+        <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="F103" s="1" t="s">
@@ -7817,7 +7817,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="104" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>429</v>
       </c>
@@ -7832,7 +7832,7 @@
         <v>43085</v>
       </c>
       <c r="E104" s="5">
-        <f>FLOOR(B104-D104,1/24)</f>
+        <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="F104" s="1" t="s">
@@ -7869,7 +7869,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="105" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>605</v>
       </c>
@@ -7884,7 +7884,7 @@
         <v>43232</v>
       </c>
       <c r="E105" s="5">
-        <f>FLOOR(B105-D105,1/24)</f>
+        <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="F105" s="1" t="s">
@@ -7921,7 +7921,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="106" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>74</v>
       </c>
@@ -7936,7 +7936,7 @@
         <v>42805</v>
       </c>
       <c r="E106" s="5">
-        <f>FLOOR(B106-D106,1/24)</f>
+        <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="F106" s="1" t="s">
@@ -7973,7 +7973,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="107" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>186</v>
       </c>
@@ -7988,7 +7988,7 @@
         <v>42889</v>
       </c>
       <c r="E107" s="5">
-        <f>FLOOR(B107-D107,1/24)</f>
+        <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="F107" s="1" t="s">
@@ -8025,7 +8025,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="108" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>413</v>
       </c>
@@ -8040,7 +8040,7 @@
         <v>43071</v>
       </c>
       <c r="E108" s="5">
-        <f>FLOOR(B108-D108,1/24)</f>
+        <f t="shared" si="1"/>
         <v>0.70833333333333326</v>
       </c>
       <c r="F108" s="1" t="s">
@@ -8077,7 +8077,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="109" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>10</v>
       </c>
@@ -8092,7 +8092,7 @@
         <v>42749</v>
       </c>
       <c r="E109" s="5">
-        <f>FLOOR(B109-D109,1/24)</f>
+        <f t="shared" si="1"/>
         <v>0.70833333333333326</v>
       </c>
       <c r="F109" s="1" t="s">
@@ -8129,7 +8129,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="110" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>222</v>
       </c>
@@ -8144,7 +8144,7 @@
         <v>42917</v>
       </c>
       <c r="E110" s="5">
-        <f>FLOOR(B110-D110,1/24)</f>
+        <f t="shared" si="1"/>
         <v>0.75</v>
       </c>
       <c r="F110" s="1" t="s">
@@ -8196,7 +8196,7 @@
         <v>42952</v>
       </c>
       <c r="E111" s="5">
-        <f>FLOOR(B111-D111,1/24)</f>
+        <f t="shared" si="1"/>
         <v>0.75</v>
       </c>
       <c r="F111" s="1" t="s">
@@ -8233,7 +8233,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="112" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>540</v>
       </c>
@@ -8248,7 +8248,7 @@
         <v>43218</v>
       </c>
       <c r="E112" s="5">
-        <f>FLOOR(B112-D112,1/24)</f>
+        <f t="shared" si="1"/>
         <v>0.75</v>
       </c>
       <c r="F112" s="1" t="s">
@@ -8285,7 +8285,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="113" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>618</v>
       </c>
@@ -8300,7 +8300,7 @@
         <v>43246</v>
       </c>
       <c r="E113" s="5">
-        <f>FLOOR(B113-D113,1/24)</f>
+        <f t="shared" si="1"/>
         <v>0.75</v>
       </c>
       <c r="F113" s="1" t="s">
@@ -8352,7 +8352,7 @@
         <v>43211</v>
       </c>
       <c r="E114" s="5">
-        <f>FLOOR(B114-D114,1/24)</f>
+        <f t="shared" si="1"/>
         <v>0.75</v>
       </c>
       <c r="F114" s="1" t="s">
@@ -8389,7 +8389,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="115" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>541</v>
       </c>
@@ -8404,7 +8404,7 @@
         <v>43218</v>
       </c>
       <c r="E115" s="5">
-        <f>FLOOR(B115-D115,1/24)</f>
+        <f t="shared" si="1"/>
         <v>0.79166666666666663</v>
       </c>
       <c r="F115" s="1" t="s">
@@ -8441,7 +8441,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="116" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>129</v>
       </c>
@@ -8456,7 +8456,7 @@
         <v>42847</v>
       </c>
       <c r="E116" s="5">
-        <f>FLOOR(B116-D116,1/24)</f>
+        <f t="shared" si="1"/>
         <v>0.79166666666666663</v>
       </c>
       <c r="F116" s="1" t="s">
@@ -8508,7 +8508,7 @@
         <v>43239</v>
       </c>
       <c r="E117" s="5">
-        <f>FLOOR(B117-D117,1/24)</f>
+        <f t="shared" si="1"/>
         <v>0.79166666666666663</v>
       </c>
       <c r="F117" s="1" t="s">
@@ -8545,7 +8545,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="118" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>333</v>
       </c>
@@ -8560,7 +8560,7 @@
         <v>43001</v>
       </c>
       <c r="E118" s="5">
-        <f>FLOOR(B118-D118,1/24)</f>
+        <f t="shared" si="1"/>
         <v>0.83333333333333326</v>
       </c>
       <c r="F118" s="1" t="s">
@@ -8612,7 +8612,7 @@
         <v>43274</v>
       </c>
       <c r="E119" s="5">
-        <f>FLOOR(B119-D119,1/24)</f>
+        <f t="shared" si="1"/>
         <v>0.83333333333333326</v>
       </c>
       <c r="F119" s="1" t="s">
@@ -8664,7 +8664,7 @@
         <v>43190</v>
       </c>
       <c r="E120" s="5">
-        <f>FLOOR(B120-D120,1/24)</f>
+        <f t="shared" si="1"/>
         <v>0.83333333333333326</v>
       </c>
       <c r="F120" s="1" t="s">
@@ -8701,7 +8701,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="121" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>312</v>
       </c>
@@ -8716,7 +8716,7 @@
         <v>42980</v>
       </c>
       <c r="E121" s="5">
-        <f>FLOOR(B121-D121,1/24)</f>
+        <f t="shared" si="1"/>
         <v>0.875</v>
       </c>
       <c r="F121" s="1" t="s">
@@ -8753,7 +8753,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="122" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>466</v>
       </c>
@@ -8768,7 +8768,7 @@
         <v>43127</v>
       </c>
       <c r="E122" s="5">
-        <f>FLOOR(B122-D122,1/24)</f>
+        <f t="shared" si="1"/>
         <v>0.875</v>
       </c>
       <c r="F122" s="1" t="s">
@@ -8820,7 +8820,7 @@
         <v>43036</v>
       </c>
       <c r="E123" s="5">
-        <f>FLOOR(B123-D123,1/24)</f>
+        <f t="shared" si="1"/>
         <v>0.875</v>
       </c>
       <c r="F123" s="1" t="s">
@@ -8872,7 +8872,7 @@
         <v>42945</v>
       </c>
       <c r="E124" s="5">
-        <f>FLOOR(B124-D124,1/24)</f>
+        <f t="shared" si="1"/>
         <v>0.875</v>
       </c>
       <c r="F124" s="1" t="s">
@@ -8924,7 +8924,7 @@
         <v>43281</v>
       </c>
       <c r="E125" s="5">
-        <f>FLOOR(B125-D125,1/24)</f>
+        <f t="shared" si="1"/>
         <v>0.875</v>
       </c>
       <c r="F125" s="1" t="s">
@@ -8961,7 +8961,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="126" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>558</v>
       </c>
@@ -8976,7 +8976,7 @@
         <v>43169</v>
       </c>
       <c r="E126" s="5">
-        <f>FLOOR(B126-D126,1/24)</f>
+        <f t="shared" si="1"/>
         <v>0.91666666666666663</v>
       </c>
       <c r="F126" s="1" t="s">
@@ -9028,7 +9028,7 @@
         <v>43155</v>
       </c>
       <c r="E127" s="5">
-        <f>FLOOR(B127-D127,1/24)</f>
+        <f t="shared" si="1"/>
         <v>0.91666666666666663</v>
       </c>
       <c r="F127" s="1" t="s">
@@ -9065,7 +9065,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="128" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>95</v>
       </c>
@@ -9080,7 +9080,7 @@
         <v>42826</v>
       </c>
       <c r="E128" s="5">
-        <f>FLOOR(B128-D128,1/24)</f>
+        <f t="shared" si="1"/>
         <v>0.91666666666666663</v>
       </c>
       <c r="F128" s="1" t="s">
@@ -9117,7 +9117,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="129" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>27</v>
       </c>
@@ -9132,7 +9132,7 @@
         <v>42763</v>
       </c>
       <c r="E129" s="5">
-        <f>FLOOR(B129-D129,1/24)</f>
+        <f t="shared" si="1"/>
         <v>0.91666666666666663</v>
       </c>
       <c r="F129" s="1" t="s">
@@ -9169,7 +9169,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="130" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>385</v>
       </c>
@@ -9184,7 +9184,7 @@
         <v>43050</v>
       </c>
       <c r="E130" s="5">
-        <f>FLOOR(B130-D130,1/24)</f>
+        <f t="shared" ref="E130:E193" si="2">FLOOR(B130-D130,1/24)</f>
         <v>0.91666666666666663</v>
       </c>
       <c r="F130" s="1" t="s">
@@ -9236,7 +9236,7 @@
         <v>42749</v>
       </c>
       <c r="E131" s="5">
-        <f>FLOOR(B131-D131,1/24)</f>
+        <f t="shared" si="2"/>
         <v>0.91666666666666663</v>
       </c>
       <c r="F131" s="1" t="s">
@@ -9288,7 +9288,7 @@
         <v>43134</v>
       </c>
       <c r="E132" s="5">
-        <f>FLOOR(B132-D132,1/24)</f>
+        <f t="shared" si="2"/>
         <v>0.95833333333333326</v>
       </c>
       <c r="F132" s="1" t="s">
@@ -9340,7 +9340,7 @@
         <v>42924</v>
       </c>
       <c r="E133" s="5">
-        <f>FLOOR(B133-D133,1/24)</f>
+        <f t="shared" si="2"/>
         <v>0.95833333333333326</v>
       </c>
       <c r="F133" s="1" t="s">
@@ -9377,7 +9377,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="134" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>342</v>
       </c>
@@ -9392,7 +9392,7 @@
         <v>43008</v>
       </c>
       <c r="E134" s="5">
-        <f>FLOOR(B134-D134,1/24)</f>
+        <f t="shared" si="2"/>
         <v>0.95833333333333326</v>
       </c>
       <c r="F134" s="1" t="s">
@@ -9429,7 +9429,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="135" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>107</v>
       </c>
@@ -9444,7 +9444,7 @@
         <v>42834</v>
       </c>
       <c r="E135" s="5">
-        <f>FLOOR(B135-D135,1/24)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F135" s="1" t="s">
@@ -9496,7 +9496,7 @@
         <v>42799</v>
       </c>
       <c r="E136" s="5">
-        <f>FLOOR(B136-D136,1/24)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F136" s="1" t="s">
@@ -9548,7 +9548,7 @@
         <v>43065</v>
       </c>
       <c r="E137" s="5">
-        <f>FLOOR(B137-D137,1/24)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F137" s="1" t="s">
@@ -9600,7 +9600,7 @@
         <v>43065</v>
       </c>
       <c r="E138" s="5">
-        <f>FLOOR(B138-D138,1/24)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F138" s="1" t="s">
@@ -9652,7 +9652,7 @@
         <v>43219</v>
       </c>
       <c r="E139" s="5">
-        <f>FLOOR(B139-D139,1/24)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F139" s="1" t="s">
@@ -9704,7 +9704,7 @@
         <v>42946</v>
       </c>
       <c r="E140" s="5">
-        <f>FLOOR(B140-D140,1/24)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F140" s="1" t="s">
@@ -9741,7 +9741,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="141" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>206</v>
       </c>
@@ -9756,7 +9756,7 @@
         <v>42904</v>
       </c>
       <c r="E141" s="5">
-        <f>FLOOR(B141-D141,1/24)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F141" s="1" t="s">
@@ -9793,7 +9793,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="142" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>467</v>
       </c>
@@ -9808,7 +9808,7 @@
         <v>43128</v>
       </c>
       <c r="E142" s="5">
-        <f>FLOOR(B142-D142,1/24)</f>
+        <f t="shared" si="2"/>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F142" s="1" t="s">
@@ -9860,7 +9860,7 @@
         <v>42764</v>
       </c>
       <c r="E143" s="5">
-        <f>FLOOR(B143-D143,1/24)</f>
+        <f t="shared" si="2"/>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F143" s="1" t="s">
@@ -9912,7 +9912,7 @@
         <v>43156</v>
       </c>
       <c r="E144" s="5">
-        <f>FLOOR(B144-D144,1/24)</f>
+        <f t="shared" si="2"/>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F144" s="1" t="s">
@@ -9964,7 +9964,7 @@
         <v>42939</v>
       </c>
       <c r="E145" s="5">
-        <f>FLOOR(B145-D145,1/24)</f>
+        <f t="shared" si="2"/>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F145" s="1" t="s">
@@ -10016,7 +10016,7 @@
         <v>42876</v>
       </c>
       <c r="E146" s="5">
-        <f>FLOOR(B146-D146,1/24)</f>
+        <f t="shared" si="2"/>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="F146" s="1" t="s">
@@ -10053,7 +10053,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="147" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>162</v>
       </c>
@@ -10068,7 +10068,7 @@
         <v>42869</v>
       </c>
       <c r="E147" s="5">
-        <f>FLOOR(B147-D147,1/24)</f>
+        <f t="shared" si="2"/>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="F147" s="1" t="s">
@@ -10120,7 +10120,7 @@
         <v>42988</v>
       </c>
       <c r="E148" s="5">
-        <f>FLOOR(B148-D148,1/24)</f>
+        <f t="shared" si="2"/>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="F148" s="1" t="s">
@@ -10172,7 +10172,7 @@
         <v>42848</v>
       </c>
       <c r="E149" s="5">
-        <f>FLOOR(B149-D149,1/24)</f>
+        <f t="shared" si="2"/>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="F149" s="1" t="s">
@@ -10224,7 +10224,7 @@
         <v>43107</v>
       </c>
       <c r="E150" s="5">
-        <f>FLOOR(B150-D150,1/24)</f>
+        <f t="shared" si="2"/>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="F150" s="1" t="s">
@@ -10276,7 +10276,7 @@
         <v>43275</v>
       </c>
       <c r="E151" s="5">
-        <f>FLOOR(B151-D151,1/24)</f>
+        <f t="shared" si="2"/>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="F151" s="1" t="s">
@@ -10328,7 +10328,7 @@
         <v>43275</v>
       </c>
       <c r="E152" s="5">
-        <f>FLOOR(B152-D152,1/24)</f>
+        <f t="shared" si="2"/>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="F152" s="1" t="s">
@@ -10380,7 +10380,7 @@
         <v>42792</v>
       </c>
       <c r="E153" s="5">
-        <f>FLOOR(B153-D153,1/24)</f>
+        <f t="shared" si="2"/>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="F153" s="1" t="s">
@@ -10417,7 +10417,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="154" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>528</v>
       </c>
@@ -10432,7 +10432,7 @@
         <v>43212</v>
       </c>
       <c r="E154" s="5">
-        <f>FLOOR(B154-D154,1/24)</f>
+        <f t="shared" si="2"/>
         <v>0.125</v>
       </c>
       <c r="F154" s="1" t="s">
@@ -10484,7 +10484,7 @@
         <v>42806</v>
       </c>
       <c r="E155" s="5">
-        <f>FLOOR(B155-D155,1/24)</f>
+        <f t="shared" si="2"/>
         <v>0.125</v>
       </c>
       <c r="F155" s="1" t="s">
@@ -10536,7 +10536,7 @@
         <v>43163</v>
       </c>
       <c r="E156" s="5">
-        <f>FLOOR(B156-D156,1/24)</f>
+        <f t="shared" si="2"/>
         <v>0.125</v>
       </c>
       <c r="F156" s="1" t="s">
@@ -10588,7 +10588,7 @@
         <v>42757</v>
       </c>
       <c r="E157" s="5">
-        <f>FLOOR(B157-D157,1/24)</f>
+        <f t="shared" si="2"/>
         <v>0.125</v>
       </c>
       <c r="F157" s="1" t="s">
@@ -10640,7 +10640,7 @@
         <v>42939</v>
       </c>
       <c r="E158" s="5">
-        <f>FLOOR(B158-D158,1/24)</f>
+        <f t="shared" si="2"/>
         <v>0.125</v>
       </c>
       <c r="F158" s="1" t="s">
@@ -10692,7 +10692,7 @@
         <v>42974</v>
       </c>
       <c r="E159" s="5">
-        <f>FLOOR(B159-D159,1/24)</f>
+        <f t="shared" si="2"/>
         <v>0.125</v>
       </c>
       <c r="F159" s="1" t="s">
@@ -10744,7 +10744,7 @@
         <v>42897</v>
       </c>
       <c r="E160" s="5">
-        <f>FLOOR(B160-D160,1/24)</f>
+        <f t="shared" si="2"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="F160" s="1" t="s">
@@ -10796,7 +10796,7 @@
         <v>43016</v>
       </c>
       <c r="E161" s="5">
-        <f>FLOOR(B161-D161,1/24)</f>
+        <f t="shared" si="2"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="F161" s="1" t="s">
@@ -10848,7 +10848,7 @@
         <v>43023</v>
       </c>
       <c r="E162" s="5">
-        <f>FLOOR(B162-D162,1/24)</f>
+        <f t="shared" si="2"/>
         <v>0.20833333333333331</v>
       </c>
       <c r="F162" s="1" t="s">
@@ -10900,7 +10900,7 @@
         <v>42848</v>
       </c>
       <c r="E163" s="5">
-        <f>FLOOR(B163-D163,1/24)</f>
+        <f t="shared" si="2"/>
         <v>0.20833333333333331</v>
       </c>
       <c r="F163" s="1" t="s">
@@ -10952,7 +10952,7 @@
         <v>42911</v>
       </c>
       <c r="E164" s="5">
-        <f>FLOOR(B164-D164,1/24)</f>
+        <f t="shared" si="2"/>
         <v>0.20833333333333331</v>
       </c>
       <c r="F164" s="1" t="s">
@@ -11004,7 +11004,7 @@
         <v>42841</v>
       </c>
       <c r="E165" s="5">
-        <f>FLOOR(B165-D165,1/24)</f>
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
       <c r="F165" s="1" t="s">
@@ -11056,7 +11056,7 @@
         <v>42757</v>
       </c>
       <c r="E166" s="5">
-        <f>FLOOR(B166-D166,1/24)</f>
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
       <c r="F166" s="1" t="s">
@@ -11108,7 +11108,7 @@
         <v>42757</v>
       </c>
       <c r="E167" s="5">
-        <f>FLOOR(B167-D167,1/24)</f>
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
       <c r="F167" s="1" t="s">
@@ -11160,7 +11160,7 @@
         <v>42834</v>
       </c>
       <c r="E168" s="5">
-        <f>FLOOR(B168-D168,1/24)</f>
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
       <c r="F168" s="1" t="s">
@@ -11212,7 +11212,7 @@
         <v>42897</v>
       </c>
       <c r="E169" s="5">
-        <f>FLOOR(B169-D169,1/24)</f>
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
       <c r="F169" s="1" t="s">
@@ -11264,7 +11264,7 @@
         <v>42750</v>
       </c>
       <c r="E170" s="5">
-        <f>FLOOR(B170-D170,1/24)</f>
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
       <c r="F170" s="1" t="s">
@@ -11316,7 +11316,7 @@
         <v>42813</v>
       </c>
       <c r="E171" s="5">
-        <f>FLOOR(B171-D171,1/24)</f>
+        <f t="shared" si="2"/>
         <v>0.29166666666666663</v>
       </c>
       <c r="F171" s="1" t="s">
@@ -11368,7 +11368,7 @@
         <v>42988</v>
       </c>
       <c r="E172" s="5">
-        <f>FLOOR(B172-D172,1/24)</f>
+        <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="F172" s="1" t="s">
@@ -11420,7 +11420,7 @@
         <v>43170</v>
       </c>
       <c r="E173" s="5">
-        <f>FLOOR(B173-D173,1/24)</f>
+        <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="F173" s="1" t="s">
@@ -11472,7 +11472,7 @@
         <v>43254</v>
       </c>
       <c r="E174" s="5">
-        <f>FLOOR(B174-D174,1/24)</f>
+        <f t="shared" si="2"/>
         <v>0.375</v>
       </c>
       <c r="F174" s="1" t="s">
@@ -11524,7 +11524,7 @@
         <v>42841</v>
       </c>
       <c r="E175" s="5">
-        <f>FLOOR(B175-D175,1/24)</f>
+        <f t="shared" si="2"/>
         <v>0.375</v>
       </c>
       <c r="F175" s="1" t="s">
@@ -11576,7 +11576,7 @@
         <v>42813</v>
       </c>
       <c r="E176" s="5">
-        <f>FLOOR(B176-D176,1/24)</f>
+        <f t="shared" si="2"/>
         <v>0.375</v>
       </c>
       <c r="F176" s="1" t="s">
@@ -11628,7 +11628,7 @@
         <v>43100</v>
       </c>
       <c r="E177" s="5">
-        <f>FLOOR(B177-D177,1/24)</f>
+        <f t="shared" si="2"/>
         <v>0.375</v>
       </c>
       <c r="F177" s="1" t="s">
@@ -11680,7 +11680,7 @@
         <v>42946</v>
       </c>
       <c r="E178" s="5">
-        <f>FLOOR(B178-D178,1/24)</f>
+        <f t="shared" si="2"/>
         <v>0.41666666666666663</v>
       </c>
       <c r="F178" s="1" t="s">
@@ -11732,7 +11732,7 @@
         <v>42988</v>
       </c>
       <c r="E179" s="5">
-        <f>FLOOR(B179-D179,1/24)</f>
+        <f t="shared" si="2"/>
         <v>0.41666666666666663</v>
       </c>
       <c r="F179" s="1" t="s">
@@ -11784,7 +11784,7 @@
         <v>42848</v>
       </c>
       <c r="E180" s="5">
-        <f>FLOOR(B180-D180,1/24)</f>
+        <f t="shared" si="2"/>
         <v>0.41666666666666663</v>
       </c>
       <c r="F180" s="1" t="s">
@@ -11836,7 +11836,7 @@
         <v>42820</v>
       </c>
       <c r="E181" s="5">
-        <f>FLOOR(B181-D181,1/24)</f>
+        <f t="shared" si="2"/>
         <v>0.45833333333333331</v>
       </c>
       <c r="F181" s="1" t="s">
@@ -11888,7 +11888,7 @@
         <v>42918</v>
       </c>
       <c r="E182" s="5">
-        <f>FLOOR(B182-D182,1/24)</f>
+        <f t="shared" si="2"/>
         <v>0.45833333333333331</v>
       </c>
       <c r="F182" s="1" t="s">
@@ -11925,7 +11925,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="183" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>636</v>
       </c>
@@ -11940,7 +11940,7 @@
         <v>43261</v>
       </c>
       <c r="E183" s="5">
-        <f>FLOOR(B183-D183,1/24)</f>
+        <f t="shared" si="2"/>
         <v>0.45833333333333331</v>
       </c>
       <c r="F183" s="1" t="s">
@@ -11977,7 +11977,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="184" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>96</v>
       </c>
@@ -11992,7 +11992,7 @@
         <v>42827</v>
       </c>
       <c r="E184" s="5">
-        <f>FLOOR(B184-D184,1/24)</f>
+        <f t="shared" si="2"/>
         <v>0.45833333333333331</v>
       </c>
       <c r="F184" s="1" t="s">
@@ -12044,7 +12044,7 @@
         <v>42939</v>
       </c>
       <c r="E185" s="5">
-        <f>FLOOR(B185-D185,1/24)</f>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="F185" s="1" t="s">
@@ -12096,7 +12096,7 @@
         <v>43254</v>
       </c>
       <c r="E186" s="5">
-        <f>FLOOR(B186-D186,1/24)</f>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="F186" s="1" t="s">
@@ -12148,7 +12148,7 @@
         <v>42848</v>
       </c>
       <c r="E187" s="5">
-        <f>FLOOR(B187-D187,1/24)</f>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="F187" s="1" t="s">
@@ -12200,7 +12200,7 @@
         <v>43023</v>
       </c>
       <c r="E188" s="5">
-        <f>FLOOR(B188-D188,1/24)</f>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="F188" s="1" t="s">
@@ -12252,7 +12252,7 @@
         <v>42827</v>
       </c>
       <c r="E189" s="5">
-        <f>FLOOR(B189-D189,1/24)</f>
+        <f t="shared" si="2"/>
         <v>0.54166666666666663</v>
       </c>
       <c r="F189" s="1" t="s">
@@ -12304,7 +12304,7 @@
         <v>43226</v>
       </c>
       <c r="E190" s="5">
-        <f>FLOOR(B190-D190,1/24)</f>
+        <f t="shared" si="2"/>
         <v>0.54166666666666663</v>
       </c>
       <c r="F190" s="1" t="s">
@@ -12356,7 +12356,7 @@
         <v>42862</v>
       </c>
       <c r="E191" s="5">
-        <f>FLOOR(B191-D191,1/24)</f>
+        <f t="shared" si="2"/>
         <v>0.54166666666666663</v>
       </c>
       <c r="F191" s="1" t="s">
@@ -12393,7 +12393,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="192" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>378</v>
       </c>
@@ -12408,7 +12408,7 @@
         <v>43044</v>
       </c>
       <c r="E192" s="5">
-        <f>FLOOR(B192-D192,1/24)</f>
+        <f t="shared" si="2"/>
         <v>0.54166666666666663</v>
       </c>
       <c r="F192" s="1" t="s">
@@ -12460,7 +12460,7 @@
         <v>43023</v>
       </c>
       <c r="E193" s="5">
-        <f>FLOOR(B193-D193,1/24)</f>
+        <f t="shared" si="2"/>
         <v>0.58333333333333326</v>
       </c>
       <c r="F193" s="1" t="s">
@@ -12512,7 +12512,7 @@
         <v>43114</v>
       </c>
       <c r="E194" s="5">
-        <f>FLOOR(B194-D194,1/24)</f>
+        <f t="shared" ref="E194:E257" si="3">FLOOR(B194-D194,1/24)</f>
         <v>0.58333333333333326</v>
       </c>
       <c r="F194" s="1" t="s">
@@ -12564,7 +12564,7 @@
         <v>43219</v>
       </c>
       <c r="E195" s="5">
-        <f>FLOOR(B195-D195,1/24)</f>
+        <f t="shared" si="3"/>
         <v>0.58333333333333326</v>
       </c>
       <c r="F195" s="1" t="s">
@@ -12616,7 +12616,7 @@
         <v>42876</v>
       </c>
       <c r="E196" s="5">
-        <f>FLOOR(B196-D196,1/24)</f>
+        <f t="shared" si="3"/>
         <v>0.58333333333333326</v>
       </c>
       <c r="F196" s="1" t="s">
@@ -12668,7 +12668,7 @@
         <v>42813</v>
       </c>
       <c r="E197" s="5">
-        <f>FLOOR(B197-D197,1/24)</f>
+        <f t="shared" si="3"/>
         <v>0.625</v>
       </c>
       <c r="F197" s="1" t="s">
@@ -12720,7 +12720,7 @@
         <v>42974</v>
       </c>
       <c r="E198" s="5">
-        <f>FLOOR(B198-D198,1/24)</f>
+        <f t="shared" si="3"/>
         <v>0.625</v>
       </c>
       <c r="F198" s="1" t="s">
@@ -12772,7 +12772,7 @@
         <v>43156</v>
       </c>
       <c r="E199" s="5">
-        <f>FLOOR(B199-D199,1/24)</f>
+        <f t="shared" si="3"/>
         <v>0.625</v>
       </c>
       <c r="F199" s="1" t="s">
@@ -12824,7 +12824,7 @@
         <v>43247</v>
       </c>
       <c r="E200" s="5">
-        <f>FLOOR(B200-D200,1/24)</f>
+        <f t="shared" si="3"/>
         <v>0.625</v>
       </c>
       <c r="F200" s="1" t="s">
@@ -12876,7 +12876,7 @@
         <v>43016</v>
       </c>
       <c r="E201" s="5">
-        <f>FLOOR(B201-D201,1/24)</f>
+        <f t="shared" si="3"/>
         <v>0.625</v>
       </c>
       <c r="F201" s="1" t="s">
@@ -12928,7 +12928,7 @@
         <v>42890</v>
       </c>
       <c r="E202" s="5">
-        <f>FLOOR(B202-D202,1/24)</f>
+        <f t="shared" si="3"/>
         <v>0.625</v>
       </c>
       <c r="F202" s="1" t="s">
@@ -12980,7 +12980,7 @@
         <v>42785</v>
       </c>
       <c r="E203" s="5">
-        <f>FLOOR(B203-D203,1/24)</f>
+        <f t="shared" si="3"/>
         <v>0.625</v>
       </c>
       <c r="F203" s="1" t="s">
@@ -13032,7 +13032,7 @@
         <v>42876</v>
       </c>
       <c r="E204" s="5">
-        <f>FLOOR(B204-D204,1/24)</f>
+        <f t="shared" si="3"/>
         <v>0.625</v>
       </c>
       <c r="F204" s="1" t="s">
@@ -13069,7 +13069,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="205" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>463</v>
       </c>
@@ -13084,7 +13084,7 @@
         <v>43121</v>
       </c>
       <c r="E205" s="5">
-        <f>FLOOR(B205-D205,1/24)</f>
+        <f t="shared" si="3"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="F205" s="1" t="s">
@@ -13121,7 +13121,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="206" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>507</v>
       </c>
@@ -13136,7 +13136,7 @@
         <v>43198</v>
       </c>
       <c r="E206" s="5">
-        <f>FLOOR(B206-D206,1/24)</f>
+        <f t="shared" si="3"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="F206" s="1" t="s">
@@ -13188,7 +13188,7 @@
         <v>42785</v>
       </c>
       <c r="E207" s="5">
-        <f>FLOOR(B207-D207,1/24)</f>
+        <f t="shared" si="3"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="F207" s="1" t="s">
@@ -13240,7 +13240,7 @@
         <v>42932</v>
       </c>
       <c r="E208" s="5">
-        <f>FLOOR(B208-D208,1/24)</f>
+        <f t="shared" si="3"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="F208" s="1" t="s">
@@ -13292,7 +13292,7 @@
         <v>43191</v>
       </c>
       <c r="E209" s="5">
-        <f>FLOOR(B209-D209,1/24)</f>
+        <f t="shared" si="3"/>
         <v>0.70833333333333326</v>
       </c>
       <c r="F209" s="1" t="s">
@@ -13329,7 +13329,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="210" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>452</v>
       </c>
@@ -13344,7 +13344,7 @@
         <v>43107</v>
       </c>
       <c r="E210" s="5">
-        <f>FLOOR(B210-D210,1/24)</f>
+        <f t="shared" si="3"/>
         <v>0.70833333333333326</v>
       </c>
       <c r="F210" s="1" t="s">
@@ -13396,7 +13396,7 @@
         <v>42932</v>
       </c>
       <c r="E211" s="5">
-        <f>FLOOR(B211-D211,1/24)</f>
+        <f t="shared" si="3"/>
         <v>0.70833333333333326</v>
       </c>
       <c r="F211" s="1" t="s">
@@ -13448,7 +13448,7 @@
         <v>42904</v>
       </c>
       <c r="E212" s="5">
-        <f>FLOOR(B212-D212,1/24)</f>
+        <f t="shared" si="3"/>
         <v>0.70833333333333326</v>
       </c>
       <c r="F212" s="1" t="s">
@@ -13500,7 +13500,7 @@
         <v>42876</v>
       </c>
       <c r="E213" s="5">
-        <f>FLOOR(B213-D213,1/24)</f>
+        <f t="shared" si="3"/>
         <v>0.75</v>
       </c>
       <c r="F213" s="1" t="s">
@@ -13552,7 +13552,7 @@
         <v>43261</v>
       </c>
       <c r="E214" s="5">
-        <f>FLOOR(B214-D214,1/24)</f>
+        <f t="shared" si="3"/>
         <v>0.75</v>
       </c>
       <c r="F214" s="1" t="s">
@@ -13604,7 +13604,7 @@
         <v>43100</v>
       </c>
       <c r="E215" s="5">
-        <f>FLOOR(B215-D215,1/24)</f>
+        <f t="shared" si="3"/>
         <v>0.79166666666666663</v>
       </c>
       <c r="F215" s="1" t="s">
@@ -13656,7 +13656,7 @@
         <v>43275</v>
       </c>
       <c r="E216" s="5">
-        <f>FLOOR(B216-D216,1/24)</f>
+        <f t="shared" si="3"/>
         <v>0.79166666666666663</v>
       </c>
       <c r="F216" s="1" t="s">
@@ -13708,7 +13708,7 @@
         <v>43212</v>
       </c>
       <c r="E217" s="5">
-        <f>FLOOR(B217-D217,1/24)</f>
+        <f t="shared" si="3"/>
         <v>0.79166666666666663</v>
       </c>
       <c r="F217" s="1" t="s">
@@ -13760,7 +13760,7 @@
         <v>43191</v>
       </c>
       <c r="E218" s="5">
-        <f>FLOOR(B218-D218,1/24)</f>
+        <f t="shared" si="3"/>
         <v>0.79166666666666663</v>
       </c>
       <c r="F218" s="1" t="s">
@@ -13812,7 +13812,7 @@
         <v>42862</v>
       </c>
       <c r="E219" s="5">
-        <f>FLOOR(B219-D219,1/24)</f>
+        <f t="shared" si="3"/>
         <v>0.83333333333333326</v>
       </c>
       <c r="F219" s="1" t="s">
@@ -13849,7 +13849,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="220" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>41</v>
       </c>
@@ -13864,7 +13864,7 @@
         <v>42778</v>
       </c>
       <c r="E220" s="5">
-        <f>FLOOR(B220-D220,1/24)</f>
+        <f t="shared" si="3"/>
         <v>0.83333333333333326</v>
       </c>
       <c r="F220" s="1" t="s">
@@ -13916,7 +13916,7 @@
         <v>42890</v>
       </c>
       <c r="E221" s="5">
-        <f>FLOOR(B221-D221,1/24)</f>
+        <f t="shared" si="3"/>
         <v>0.83333333333333326</v>
       </c>
       <c r="F221" s="1" t="s">
@@ -13968,7 +13968,7 @@
         <v>42757</v>
       </c>
       <c r="E222" s="5">
-        <f>FLOOR(B222-D222,1/24)</f>
+        <f t="shared" si="3"/>
         <v>0.83333333333333326</v>
       </c>
       <c r="F222" s="1" t="s">
@@ -14005,7 +14005,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="223" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>199</v>
       </c>
@@ -14020,7 +14020,7 @@
         <v>42898</v>
       </c>
       <c r="E223" s="5">
-        <f>FLOOR(B223-D223,1/24)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F223" s="1" t="s">
@@ -14057,7 +14057,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="224" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>69</v>
       </c>
@@ -14072,7 +14072,7 @@
         <v>42800</v>
       </c>
       <c r="E224" s="5">
-        <f>FLOOR(B224-D224,1/24)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F224" s="1" t="s">
@@ -14109,7 +14109,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="225" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>551</v>
       </c>
@@ -14124,7 +14124,7 @@
         <v>43164</v>
       </c>
       <c r="E225" s="5">
-        <f>FLOOR(B225-D225,1/24)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F225" s="1" t="s">
@@ -14161,7 +14161,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="226" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>276</v>
       </c>
@@ -14176,7 +14176,7 @@
         <v>42947</v>
       </c>
       <c r="E226" s="5">
-        <f>FLOOR(B226-D226,1/24)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F226" s="1" t="s">
@@ -14228,7 +14228,7 @@
         <v>42744</v>
       </c>
       <c r="E227" s="5">
-        <f>FLOOR(B227-D227,1/24)</f>
+        <f t="shared" si="3"/>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F227" s="1" t="s">
@@ -14265,7 +14265,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="228" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>4</v>
       </c>
@@ -14280,7 +14280,7 @@
         <v>42744</v>
       </c>
       <c r="E228" s="5">
-        <f>FLOOR(B228-D228,1/24)</f>
+        <f t="shared" si="3"/>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F228" s="1" t="s">
@@ -14317,7 +14317,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="229" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>99</v>
       </c>
@@ -14332,7 +14332,7 @@
         <v>42828</v>
       </c>
       <c r="E229" s="5">
-        <f>FLOOR(B229-D229,1/24)</f>
+        <f t="shared" si="3"/>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="F229" s="1" t="s">
@@ -14369,7 +14369,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="230" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>215</v>
       </c>
@@ -14384,7 +14384,7 @@
         <v>42912</v>
       </c>
       <c r="E230" s="5">
-        <f>FLOOR(B230-D230,1/24)</f>
+        <f t="shared" si="3"/>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="F230" s="1" t="s">
@@ -14421,7 +14421,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="231" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>443</v>
       </c>
@@ -14436,7 +14436,7 @@
         <v>43101</v>
       </c>
       <c r="E231" s="5">
-        <f>FLOOR(B231-D231,1/24)</f>
+        <f t="shared" si="3"/>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="F231" s="1" t="s">
@@ -14488,7 +14488,7 @@
         <v>43108</v>
       </c>
       <c r="E232" s="5">
-        <f>FLOOR(B232-D232,1/24)</f>
+        <f t="shared" si="3"/>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="F232" s="1" t="s">
@@ -14540,7 +14540,7 @@
         <v>43150</v>
       </c>
       <c r="E233" s="5">
-        <f>FLOOR(B233-D233,1/24)</f>
+        <f t="shared" si="3"/>
         <v>0.125</v>
       </c>
       <c r="F233" s="1" t="s">
@@ -14577,7 +14577,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="234" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>560</v>
       </c>
@@ -14592,7 +14592,7 @@
         <v>43171</v>
       </c>
       <c r="E234" s="5">
-        <f>FLOOR(B234-D234,1/24)</f>
+        <f t="shared" si="3"/>
         <v>0.125</v>
       </c>
       <c r="F234" s="1" t="s">
@@ -14644,7 +14644,7 @@
         <v>43045</v>
       </c>
       <c r="E235" s="5">
-        <f>FLOOR(B235-D235,1/24)</f>
+        <f t="shared" si="3"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="F235" s="1" t="s">
@@ -14681,7 +14681,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="236" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>508</v>
       </c>
@@ -14696,7 +14696,7 @@
         <v>43199</v>
       </c>
       <c r="E236" s="5">
-        <f>FLOOR(B236-D236,1/24)</f>
+        <f t="shared" si="3"/>
         <v>0.20833333333333331</v>
       </c>
       <c r="F236" s="1" t="s">
@@ -14748,7 +14748,7 @@
         <v>43038</v>
       </c>
       <c r="E237" s="5">
-        <f>FLOOR(B237-D237,1/24)</f>
+        <f t="shared" si="3"/>
         <v>0.25</v>
       </c>
       <c r="F237" s="1" t="s">
@@ -14785,7 +14785,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="238" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>21</v>
       </c>
@@ -14800,7 +14800,7 @@
         <v>42758</v>
       </c>
       <c r="E238" s="5">
-        <f>FLOOR(B238-D238,1/24)</f>
+        <f t="shared" si="3"/>
         <v>0.25</v>
       </c>
       <c r="F238" s="1" t="s">
@@ -14837,7 +14837,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="239" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>509</v>
       </c>
@@ -14852,7 +14852,7 @@
         <v>43199</v>
       </c>
       <c r="E239" s="5">
-        <f>FLOOR(B239-D239,1/24)</f>
+        <f t="shared" si="3"/>
         <v>0.25</v>
       </c>
       <c r="F239" s="1" t="s">
@@ -14904,7 +14904,7 @@
         <v>43059</v>
       </c>
       <c r="E240" s="5">
-        <f>FLOOR(B240-D240,1/24)</f>
+        <f t="shared" si="3"/>
         <v>0.25</v>
       </c>
       <c r="F240" s="1" t="s">
@@ -14941,7 +14941,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="241" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>285</v>
       </c>
@@ -14956,7 +14956,7 @@
         <v>42961</v>
       </c>
       <c r="E241" s="5">
-        <f>FLOOR(B241-D241,1/24)</f>
+        <f t="shared" si="3"/>
         <v>0.29166666666666663</v>
       </c>
       <c r="F241" s="1" t="s">
@@ -15008,7 +15008,7 @@
         <v>42870</v>
       </c>
       <c r="E242" s="5">
-        <f>FLOOR(B242-D242,1/24)</f>
+        <f t="shared" si="3"/>
         <v>0.29166666666666663</v>
       </c>
       <c r="F242" s="1" t="s">
@@ -15060,7 +15060,7 @@
         <v>43150</v>
       </c>
       <c r="E243" s="5">
-        <f>FLOOR(B243-D243,1/24)</f>
+        <f t="shared" si="3"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="F243" s="1" t="s">
@@ -15112,7 +15112,7 @@
         <v>42982</v>
       </c>
       <c r="E244" s="5">
-        <f>FLOOR(B244-D244,1/24)</f>
+        <f t="shared" si="3"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="F244" s="1" t="s">
@@ -15164,7 +15164,7 @@
         <v>42891</v>
       </c>
       <c r="E245" s="5">
-        <f>FLOOR(B245-D245,1/24)</f>
+        <f t="shared" si="3"/>
         <v>0.375</v>
       </c>
       <c r="F245" s="1" t="s">
@@ -15216,7 +15216,7 @@
         <v>43080</v>
       </c>
       <c r="E246" s="5">
-        <f>FLOOR(B246-D246,1/24)</f>
+        <f t="shared" si="3"/>
         <v>0.375</v>
       </c>
       <c r="F246" s="1" t="s">
@@ -15253,7 +15253,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="247" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>613</v>
       </c>
@@ -15268,7 +15268,7 @@
         <v>43241</v>
       </c>
       <c r="E247" s="5">
-        <f>FLOOR(B247-D247,1/24)</f>
+        <f t="shared" si="3"/>
         <v>0.375</v>
       </c>
       <c r="F247" s="1" t="s">
@@ -15305,7 +15305,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="248" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>190</v>
       </c>
@@ -15320,7 +15320,7 @@
         <v>42891</v>
       </c>
       <c r="E248" s="5">
-        <f>FLOOR(B248-D248,1/24)</f>
+        <f t="shared" si="3"/>
         <v>0.375</v>
       </c>
       <c r="F248" s="1" t="s">
@@ -15357,7 +15357,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="249" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>476</v>
       </c>
@@ -15372,7 +15372,7 @@
         <v>43136</v>
       </c>
       <c r="E249" s="5">
-        <f>FLOOR(B249-D249,1/24)</f>
+        <f t="shared" si="3"/>
         <v>0.375</v>
       </c>
       <c r="F249" s="1" t="s">
@@ -15424,7 +15424,7 @@
         <v>42975</v>
       </c>
       <c r="E250" s="5">
-        <f>FLOOR(B250-D250,1/24)</f>
+        <f t="shared" si="3"/>
         <v>0.375</v>
       </c>
       <c r="F250" s="1" t="s">
@@ -15461,7 +15461,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="251" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>5</v>
       </c>
@@ -15476,7 +15476,7 @@
         <v>42744</v>
       </c>
       <c r="E251" s="5">
-        <f>FLOOR(B251-D251,1/24)</f>
+        <f t="shared" si="3"/>
         <v>0.41666666666666663</v>
       </c>
       <c r="F251" s="1" t="s">
@@ -15528,7 +15528,7 @@
         <v>43129</v>
       </c>
       <c r="E252" s="5">
-        <f>FLOOR(B252-D252,1/24)</f>
+        <f t="shared" si="3"/>
         <v>0.41666666666666663</v>
       </c>
       <c r="F252" s="1" t="s">
@@ -15565,7 +15565,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="253" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>140</v>
       </c>
@@ -15580,7 +15580,7 @@
         <v>42856</v>
       </c>
       <c r="E253" s="5">
-        <f>FLOOR(B253-D253,1/24)</f>
+        <f t="shared" si="3"/>
         <v>0.45833333333333331</v>
       </c>
       <c r="F253" s="1" t="s">
@@ -15617,7 +15617,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="254" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>258</v>
       </c>
@@ -15632,7 +15632,7 @@
         <v>42940</v>
       </c>
       <c r="E254" s="5">
-        <f>FLOOR(B254-D254,1/24)</f>
+        <f t="shared" si="3"/>
         <v>0.45833333333333331</v>
       </c>
       <c r="F254" s="1" t="s">
@@ -15669,7 +15669,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="255" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>283</v>
       </c>
@@ -15684,7 +15684,7 @@
         <v>42954</v>
       </c>
       <c r="E255" s="5">
-        <f>FLOOR(B255-D255,1/24)</f>
+        <f t="shared" si="3"/>
         <v>0.45833333333333331</v>
       </c>
       <c r="F255" s="1" t="s">
@@ -15721,7 +15721,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="256" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>629</v>
       </c>
@@ -15736,7 +15736,7 @@
         <v>43255</v>
       </c>
       <c r="E256" s="5">
-        <f>FLOOR(B256-D256,1/24)</f>
+        <f t="shared" si="3"/>
         <v>0.45833333333333331</v>
       </c>
       <c r="F256" s="1" t="s">
@@ -15788,7 +15788,7 @@
         <v>43059</v>
       </c>
       <c r="E257" s="5">
-        <f>FLOOR(B257-D257,1/24)</f>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="F257" s="1" t="s">
@@ -15825,7 +15825,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="258" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>510</v>
       </c>
@@ -15840,7 +15840,7 @@
         <v>43199</v>
       </c>
       <c r="E258" s="5">
-        <f>FLOOR(B258-D258,1/24)</f>
+        <f t="shared" ref="E258:E321" si="4">FLOOR(B258-D258,1/24)</f>
         <v>0.5</v>
       </c>
       <c r="F258" s="1" t="s">
@@ -15892,7 +15892,7 @@
         <v>42779</v>
       </c>
       <c r="E259" s="5">
-        <f>FLOOR(B259-D259,1/24)</f>
+        <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
       <c r="F259" s="1" t="s">
@@ -15944,7 +15944,7 @@
         <v>43248</v>
       </c>
       <c r="E260" s="5">
-        <f>FLOOR(B260-D260,1/24)</f>
+        <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
       <c r="F260" s="1" t="s">
@@ -15996,7 +15996,7 @@
         <v>42926</v>
       </c>
       <c r="E261" s="5">
-        <f>FLOOR(B261-D261,1/24)</f>
+        <f t="shared" si="4"/>
         <v>0.54166666666666663</v>
       </c>
       <c r="F261" s="1" t="s">
@@ -16033,7 +16033,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="262" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>302</v>
       </c>
@@ -16048,7 +16048,7 @@
         <v>42975</v>
       </c>
       <c r="E262" s="5">
-        <f>FLOOR(B262-D262,1/24)</f>
+        <f t="shared" si="4"/>
         <v>0.58333333333333326</v>
       </c>
       <c r="F262" s="1" t="s">
@@ -16100,7 +16100,7 @@
         <v>43052</v>
       </c>
       <c r="E263" s="5">
-        <f>FLOOR(B263-D263,1/24)</f>
+        <f t="shared" si="4"/>
         <v>0.58333333333333326</v>
       </c>
       <c r="F263" s="1" t="s">
@@ -16137,7 +16137,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="264" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>364</v>
       </c>
@@ -16152,7 +16152,7 @@
         <v>43031</v>
       </c>
       <c r="E264" s="5">
-        <f>FLOOR(B264-D264,1/24)</f>
+        <f t="shared" si="4"/>
         <v>0.58333333333333326</v>
       </c>
       <c r="F264" s="1" t="s">
@@ -16204,7 +16204,7 @@
         <v>42800</v>
       </c>
       <c r="E265" s="5">
-        <f>FLOOR(B265-D265,1/24)</f>
+        <f t="shared" si="4"/>
         <v>0.58333333333333326</v>
       </c>
       <c r="F265" s="1" t="s">
@@ -16241,7 +16241,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="266" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>421</v>
       </c>
@@ -16256,7 +16256,7 @@
         <v>43080</v>
       </c>
       <c r="E266" s="5">
-        <f>FLOOR(B266-D266,1/24)</f>
+        <f t="shared" si="4"/>
         <v>0.58333333333333326</v>
       </c>
       <c r="F266" s="1" t="s">
@@ -16308,7 +16308,7 @@
         <v>43052</v>
       </c>
       <c r="E267" s="5">
-        <f>FLOOR(B267-D267,1/24)</f>
+        <f t="shared" si="4"/>
         <v>0.58333333333333326</v>
       </c>
       <c r="F267" s="1" t="s">
@@ -16345,7 +16345,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="268" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>120</v>
       </c>
@@ -16360,7 +16360,7 @@
         <v>42842</v>
       </c>
       <c r="E268" s="5">
-        <f>FLOOR(B268-D268,1/24)</f>
+        <f t="shared" si="4"/>
         <v>0.625</v>
       </c>
       <c r="F268" s="1" t="s">
@@ -16412,7 +16412,7 @@
         <v>42926</v>
       </c>
       <c r="E269" s="5">
-        <f>FLOOR(B269-D269,1/24)</f>
+        <f t="shared" si="4"/>
         <v>0.625</v>
       </c>
       <c r="F269" s="1" t="s">
@@ -16449,7 +16449,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="270" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>286</v>
       </c>
@@ -16464,7 +16464,7 @@
         <v>42961</v>
       </c>
       <c r="E270" s="5">
-        <f>FLOOR(B270-D270,1/24)</f>
+        <f t="shared" si="4"/>
         <v>0.625</v>
       </c>
       <c r="F270" s="1" t="s">
@@ -16516,7 +16516,7 @@
         <v>42751</v>
       </c>
       <c r="E271" s="5">
-        <f>FLOOR(B271-D271,1/24)</f>
+        <f t="shared" si="4"/>
         <v>0.625</v>
       </c>
       <c r="F271" s="1" t="s">
@@ -16568,7 +16568,7 @@
         <v>42863</v>
       </c>
       <c r="E272" s="5">
-        <f>FLOOR(B272-D272,1/24)</f>
+        <f t="shared" si="4"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="F272" s="1" t="s">
@@ -16620,7 +16620,7 @@
         <v>42912</v>
       </c>
       <c r="E273" s="5">
-        <f>FLOOR(B273-D273,1/24)</f>
+        <f t="shared" si="4"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="F273" s="1" t="s">
@@ -16657,7 +16657,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="274" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>237</v>
       </c>
@@ -16672,7 +16672,7 @@
         <v>42926</v>
       </c>
       <c r="E274" s="5">
-        <f>FLOOR(B274-D274,1/24)</f>
+        <f t="shared" si="4"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="F274" s="1" t="s">
@@ -16709,7 +16709,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="275" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>150</v>
       </c>
@@ -16724,7 +16724,7 @@
         <v>42863</v>
       </c>
       <c r="E275" s="5">
-        <f>FLOOR(B275-D275,1/24)</f>
+        <f t="shared" si="4"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="F275" s="1" t="s">
@@ -16776,7 +16776,7 @@
         <v>42898</v>
       </c>
       <c r="E276" s="5">
-        <f>FLOOR(B276-D276,1/24)</f>
+        <f t="shared" si="4"/>
         <v>0.70833333333333326</v>
       </c>
       <c r="F276" s="1" t="s">
@@ -16828,7 +16828,7 @@
         <v>42905</v>
       </c>
       <c r="E277" s="5">
-        <f>FLOOR(B277-D277,1/24)</f>
+        <f t="shared" si="4"/>
         <v>0.70833333333333326</v>
       </c>
       <c r="F277" s="1" t="s">
@@ -16865,7 +16865,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="278" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>511</v>
       </c>
@@ -16880,7 +16880,7 @@
         <v>43199</v>
       </c>
       <c r="E278" s="5">
-        <f>FLOOR(B278-D278,1/24)</f>
+        <f t="shared" si="4"/>
         <v>0.70833333333333326</v>
       </c>
       <c r="F278" s="1" t="s">
@@ -16932,7 +16932,7 @@
         <v>43227</v>
       </c>
       <c r="E279" s="5">
-        <f>FLOOR(B279-D279,1/24)</f>
+        <f t="shared" si="4"/>
         <v>0.70833333333333326</v>
       </c>
       <c r="F279" s="1" t="s">
@@ -16984,7 +16984,7 @@
         <v>42835</v>
       </c>
       <c r="E280" s="5">
-        <f>FLOOR(B280-D280,1/24)</f>
+        <f t="shared" si="4"/>
         <v>0.70833333333333326</v>
       </c>
       <c r="F280" s="1" t="s">
@@ -17021,7 +17021,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="281" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>6</v>
       </c>
@@ -17036,7 +17036,7 @@
         <v>42744</v>
       </c>
       <c r="E281" s="5">
-        <f>FLOOR(B281-D281,1/24)</f>
+        <f t="shared" si="4"/>
         <v>0.70833333333333326</v>
       </c>
       <c r="F281" s="1" t="s">
@@ -17073,7 +17073,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="282" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>521</v>
       </c>
@@ -17088,7 +17088,7 @@
         <v>43206</v>
       </c>
       <c r="E282" s="5">
-        <f>FLOOR(B282-D282,1/24)</f>
+        <f t="shared" si="4"/>
         <v>0.75</v>
       </c>
       <c r="F282" s="1" t="s">
@@ -17125,7 +17125,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="283" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>422</v>
       </c>
@@ -17140,7 +17140,7 @@
         <v>43080</v>
       </c>
       <c r="E283" s="5">
-        <f>FLOOR(B283-D283,1/24)</f>
+        <f t="shared" si="4"/>
         <v>0.75</v>
       </c>
       <c r="F283" s="1" t="s">
@@ -17192,7 +17192,7 @@
         <v>42835</v>
       </c>
       <c r="E284" s="5">
-        <f>FLOOR(B284-D284,1/24)</f>
+        <f t="shared" si="4"/>
         <v>0.75</v>
       </c>
       <c r="F284" s="1" t="s">
@@ -17244,7 +17244,7 @@
         <v>43234</v>
       </c>
       <c r="E285" s="5">
-        <f>FLOOR(B285-D285,1/24)</f>
+        <f t="shared" si="4"/>
         <v>0.75</v>
       </c>
       <c r="F285" s="1" t="s">
@@ -17296,7 +17296,7 @@
         <v>43262</v>
       </c>
       <c r="E286" s="5">
-        <f>FLOOR(B286-D286,1/24)</f>
+        <f t="shared" si="4"/>
         <v>0.79166666666666663</v>
       </c>
       <c r="F286" s="1" t="s">
@@ -17333,7 +17333,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="287" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>303</v>
       </c>
@@ -17348,7 +17348,7 @@
         <v>42975</v>
       </c>
       <c r="E287" s="5">
-        <f>FLOOR(B287-D287,1/24)</f>
+        <f t="shared" si="4"/>
         <v>0.79166666666666663</v>
       </c>
       <c r="F287" s="1" t="s">
@@ -17400,7 +17400,7 @@
         <v>43010</v>
       </c>
       <c r="E288" s="5">
-        <f>FLOOR(B288-D288,1/24)</f>
+        <f t="shared" si="4"/>
         <v>0.83333333333333326</v>
       </c>
       <c r="F288" s="1" t="s">
@@ -17437,7 +17437,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="289" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>469</v>
       </c>
@@ -17452,7 +17452,7 @@
         <v>43129</v>
       </c>
       <c r="E289" s="5">
-        <f>FLOOR(B289-D289,1/24)</f>
+        <f t="shared" si="4"/>
         <v>0.83333333333333326</v>
       </c>
       <c r="F289" s="1" t="s">
@@ -17504,7 +17504,7 @@
         <v>43101</v>
       </c>
       <c r="E290" s="5">
-        <f>FLOOR(B290-D290,1/24)</f>
+        <f t="shared" si="4"/>
         <v>0.83333333333333326</v>
       </c>
       <c r="F290" s="1" t="s">
@@ -17556,7 +17556,7 @@
         <v>42765</v>
       </c>
       <c r="E291" s="5">
-        <f>FLOOR(B291-D291,1/24)</f>
+        <f t="shared" si="4"/>
         <v>0.875</v>
       </c>
       <c r="F291" s="1" t="s">
@@ -17608,7 +17608,7 @@
         <v>42849</v>
       </c>
       <c r="E292" s="5">
-        <f>FLOOR(B292-D292,1/24)</f>
+        <f t="shared" si="4"/>
         <v>0.875</v>
       </c>
       <c r="F292" s="1" t="s">
@@ -17660,7 +17660,7 @@
         <v>43136</v>
       </c>
       <c r="E293" s="5">
-        <f>FLOOR(B293-D293,1/24)</f>
+        <f t="shared" si="4"/>
         <v>0.875</v>
       </c>
       <c r="F293" s="1" t="s">
@@ -17697,7 +17697,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="294" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>621</v>
       </c>
@@ -17712,7 +17712,7 @@
         <v>43248</v>
       </c>
       <c r="E294" s="5">
-        <f>FLOOR(B294-D294,1/24)</f>
+        <f t="shared" si="4"/>
         <v>0.91666666666666663</v>
       </c>
       <c r="F294" s="1" t="s">
@@ -17764,7 +17764,7 @@
         <v>43276</v>
       </c>
       <c r="E295" s="5">
-        <f>FLOOR(B295-D295,1/24)</f>
+        <f t="shared" si="4"/>
         <v>0.91666666666666663</v>
       </c>
       <c r="F295" s="1" t="s">
@@ -17801,7 +17801,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="296" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>177</v>
       </c>
@@ -17816,7 +17816,7 @@
         <v>42884</v>
       </c>
       <c r="E296" s="5">
-        <f>FLOOR(B296-D296,1/24)</f>
+        <f t="shared" si="4"/>
         <v>0.91666666666666663</v>
       </c>
       <c r="F296" s="1" t="s">
@@ -17868,7 +17868,7 @@
         <v>43185</v>
       </c>
       <c r="E297" s="5">
-        <f>FLOOR(B297-D297,1/24)</f>
+        <f t="shared" si="4"/>
         <v>0.91666666666666663</v>
       </c>
       <c r="F297" s="1" t="s">
@@ -17920,7 +17920,7 @@
         <v>43003</v>
       </c>
       <c r="E298" s="5">
-        <f>FLOOR(B298-D298,1/24)</f>
+        <f t="shared" si="4"/>
         <v>0.95833333333333326</v>
       </c>
       <c r="F298" s="1" t="s">
@@ -17957,7 +17957,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="299" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>135</v>
       </c>
@@ -17972,7 +17972,7 @@
         <v>42849</v>
       </c>
       <c r="E299" s="5">
-        <f>FLOOR(B299-D299,1/24)</f>
+        <f t="shared" si="4"/>
         <v>0.95833333333333326</v>
       </c>
       <c r="F299" s="1" t="s">
@@ -18024,7 +18024,7 @@
         <v>43227</v>
       </c>
       <c r="E300" s="5">
-        <f>FLOOR(B300-D300,1/24)</f>
+        <f t="shared" si="4"/>
         <v>0.95833333333333326</v>
       </c>
       <c r="F300" s="1" t="s">
@@ -18061,7 +18061,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="301" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>151</v>
       </c>
@@ -18076,7 +18076,7 @@
         <v>42864</v>
       </c>
       <c r="E301" s="5">
-        <f>FLOOR(B301-D301,1/24)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F301" s="1" t="s">
@@ -18128,7 +18128,7 @@
         <v>43179</v>
       </c>
       <c r="E302" s="5">
-        <f>FLOOR(B302-D302,1/24)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F302" s="1" t="s">
@@ -18165,7 +18165,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="303" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>575</v>
       </c>
@@ -18180,7 +18180,7 @@
         <v>43179</v>
       </c>
       <c r="E303" s="5">
-        <f>FLOOR(B303-D303,1/24)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F303" s="1" t="s">
@@ -18217,7 +18217,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="304" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>111</v>
       </c>
@@ -18232,7 +18232,7 @@
         <v>42836</v>
       </c>
       <c r="E304" s="5">
-        <f>FLOOR(B304-D304,1/24)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F304" s="1" t="s">
@@ -18269,7 +18269,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="305" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>561</v>
       </c>
@@ -18284,7 +18284,7 @@
         <v>43172</v>
       </c>
       <c r="E305" s="5">
-        <f>FLOOR(B305-D305,1/24)</f>
+        <f t="shared" si="4"/>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F305" s="1" t="s">
@@ -18336,7 +18336,7 @@
         <v>42850</v>
       </c>
       <c r="E306" s="5">
-        <f>FLOOR(B306-D306,1/24)</f>
+        <f t="shared" si="4"/>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F306" s="1" t="s">
@@ -18388,7 +18388,7 @@
         <v>42892</v>
       </c>
       <c r="E307" s="5">
-        <f>FLOOR(B307-D307,1/24)</f>
+        <f t="shared" si="4"/>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F307" s="1" t="s">
@@ -18425,7 +18425,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="308" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>201</v>
       </c>
@@ -18440,7 +18440,7 @@
         <v>42899</v>
       </c>
       <c r="E308" s="5">
-        <f>FLOOR(B308-D308,1/24)</f>
+        <f t="shared" si="4"/>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F308" s="1" t="s">
@@ -18477,7 +18477,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="309" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>76</v>
       </c>
@@ -18492,7 +18492,7 @@
         <v>42808</v>
       </c>
       <c r="E309" s="5">
-        <f>FLOOR(B309-D309,1/24)</f>
+        <f t="shared" si="4"/>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F309" s="1" t="s">
@@ -18544,7 +18544,7 @@
         <v>43221</v>
       </c>
       <c r="E310" s="5">
-        <f>FLOOR(B310-D310,1/24)</f>
+        <f t="shared" si="4"/>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="F310" s="1" t="s">
@@ -18596,7 +18596,7 @@
         <v>43004</v>
       </c>
       <c r="E311" s="5">
-        <f>FLOOR(B311-D311,1/24)</f>
+        <f t="shared" si="4"/>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="F311" s="1" t="s">
@@ -18633,7 +18633,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="312" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>583</v>
       </c>
@@ -18648,7 +18648,7 @@
         <v>43186</v>
       </c>
       <c r="E312" s="5">
-        <f>FLOOR(B312-D312,1/24)</f>
+        <f t="shared" si="4"/>
         <v>0.125</v>
       </c>
       <c r="F312" s="1" t="s">
@@ -18685,7 +18685,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="313" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>496</v>
       </c>
@@ -18700,7 +18700,7 @@
         <v>43158</v>
       </c>
       <c r="E313" s="5">
-        <f>FLOOR(B313-D313,1/24)</f>
+        <f t="shared" si="4"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="F313" s="1" t="s">
@@ -18737,7 +18737,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="314" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>192</v>
       </c>
@@ -18752,7 +18752,7 @@
         <v>42892</v>
       </c>
       <c r="E314" s="5">
-        <f>FLOOR(B314-D314,1/24)</f>
+        <f t="shared" si="4"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="F314" s="1" t="s">
@@ -18804,7 +18804,7 @@
         <v>43046</v>
       </c>
       <c r="E315" s="5">
-        <f>FLOOR(B315-D315,1/24)</f>
+        <f t="shared" si="4"/>
         <v>0.20833333333333331</v>
       </c>
       <c r="F315" s="1" t="s">
@@ -18856,7 +18856,7 @@
         <v>42864</v>
       </c>
       <c r="E316" s="5">
-        <f>FLOOR(B316-D316,1/24)</f>
+        <f t="shared" si="4"/>
         <v>0.20833333333333331</v>
       </c>
       <c r="F316" s="1" t="s">
@@ -18908,7 +18908,7 @@
         <v>43242</v>
       </c>
       <c r="E317" s="5">
-        <f>FLOOR(B317-D317,1/24)</f>
+        <f t="shared" si="4"/>
         <v>0.20833333333333331</v>
       </c>
       <c r="F317" s="1" t="s">
@@ -18960,7 +18960,7 @@
         <v>42997</v>
       </c>
       <c r="E318" s="5">
-        <f>FLOOR(B318-D318,1/24)</f>
+        <f t="shared" si="4"/>
         <v>0.20833333333333331</v>
       </c>
       <c r="F318" s="1" t="s">
@@ -19012,7 +19012,7 @@
         <v>43137</v>
       </c>
       <c r="E319" s="5">
-        <f>FLOOR(B319-D319,1/24)</f>
+        <f t="shared" si="4"/>
         <v>0.29166666666666663</v>
       </c>
       <c r="F319" s="1" t="s">
@@ -19064,7 +19064,7 @@
         <v>42871</v>
       </c>
       <c r="E320" s="5">
-        <f>FLOOR(B320-D320,1/24)</f>
+        <f t="shared" si="4"/>
         <v>0.29166666666666663</v>
       </c>
       <c r="F320" s="1" t="s">
@@ -19116,7 +19116,7 @@
         <v>43130</v>
       </c>
       <c r="E321" s="5">
-        <f>FLOOR(B321-D321,1/24)</f>
+        <f t="shared" si="4"/>
         <v>0.29166666666666663</v>
       </c>
       <c r="F321" s="1" t="s">
@@ -19153,7 +19153,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="322" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>43</v>
       </c>
@@ -19168,7 +19168,7 @@
         <v>42780</v>
       </c>
       <c r="E322" s="5">
-        <f>FLOOR(B322-D322,1/24)</f>
+        <f t="shared" ref="E322:E385" si="5">FLOOR(B322-D322,1/24)</f>
         <v>0.29166666666666663</v>
       </c>
       <c r="F322" s="1" t="s">
@@ -19205,7 +19205,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="323" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>615</v>
       </c>
@@ -19220,7 +19220,7 @@
         <v>43242</v>
       </c>
       <c r="E323" s="5">
-        <f>FLOOR(B323-D323,1/24)</f>
+        <f t="shared" si="5"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="F323" s="1" t="s">
@@ -19272,7 +19272,7 @@
         <v>42836</v>
       </c>
       <c r="E324" s="5">
-        <f>FLOOR(B324-D324,1/24)</f>
+        <f t="shared" si="5"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="F324" s="1" t="s">
@@ -19309,7 +19309,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="325" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>304</v>
       </c>
@@ -19324,7 +19324,7 @@
         <v>42976</v>
       </c>
       <c r="E325" s="5">
-        <f>FLOOR(B325-D325,1/24)</f>
+        <f t="shared" si="5"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="F325" s="1" t="s">
@@ -19376,7 +19376,7 @@
         <v>43081</v>
       </c>
       <c r="E326" s="5">
-        <f>FLOOR(B326-D326,1/24)</f>
+        <f t="shared" si="5"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="F326" s="1" t="s">
@@ -19428,7 +19428,7 @@
         <v>43067</v>
       </c>
       <c r="E327" s="5">
-        <f>FLOOR(B327-D327,1/24)</f>
+        <f t="shared" si="5"/>
         <v>0.375</v>
       </c>
       <c r="F327" s="1" t="s">
@@ -19480,7 +19480,7 @@
         <v>42892</v>
       </c>
       <c r="E328" s="5">
-        <f>FLOOR(B328-D328,1/24)</f>
+        <f t="shared" si="5"/>
         <v>0.375</v>
       </c>
       <c r="F328" s="1" t="s">
@@ -19517,7 +19517,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="329" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>173</v>
       </c>
@@ -19532,7 +19532,7 @@
         <v>42878</v>
       </c>
       <c r="E329" s="5">
-        <f>FLOOR(B329-D329,1/24)</f>
+        <f t="shared" si="5"/>
         <v>0.375</v>
       </c>
       <c r="F329" s="1" t="s">
@@ -19569,7 +19569,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="330" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>500</v>
       </c>
@@ -19584,7 +19584,7 @@
         <v>43193</v>
       </c>
       <c r="E330" s="5">
-        <f>FLOOR(B330-D330,1/24)</f>
+        <f t="shared" si="5"/>
         <v>0.41666666666666663</v>
       </c>
       <c r="F330" s="1" t="s">
@@ -19636,7 +19636,7 @@
         <v>42864</v>
       </c>
       <c r="E331" s="5">
-        <f>FLOOR(B331-D331,1/24)</f>
+        <f t="shared" si="5"/>
         <v>0.41666666666666663</v>
       </c>
       <c r="F331" s="1" t="s">
@@ -19673,7 +19673,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="332" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>365</v>
       </c>
@@ -19688,7 +19688,7 @@
         <v>43032</v>
       </c>
       <c r="E332" s="5">
-        <f>FLOOR(B332-D332,1/24)</f>
+        <f t="shared" si="5"/>
         <v>0.41666666666666663</v>
       </c>
       <c r="F332" s="1" t="s">
@@ -19725,7 +19725,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="333" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>344</v>
       </c>
@@ -19740,7 +19740,7 @@
         <v>43011</v>
       </c>
       <c r="E333" s="5">
-        <f>FLOOR(B333-D333,1/24)</f>
+        <f t="shared" si="5"/>
         <v>0.41666666666666663</v>
       </c>
       <c r="F333" s="1" t="s">
@@ -19792,7 +19792,7 @@
         <v>43081</v>
       </c>
       <c r="E334" s="5">
-        <f>FLOOR(B334-D334,1/24)</f>
+        <f t="shared" si="5"/>
         <v>0.41666666666666663</v>
       </c>
       <c r="F334" s="1" t="s">
@@ -19844,7 +19844,7 @@
         <v>42983</v>
       </c>
       <c r="E335" s="5">
-        <f>FLOOR(B335-D335,1/24)</f>
+        <f t="shared" si="5"/>
         <v>0.41666666666666663</v>
       </c>
       <c r="F335" s="1" t="s">
@@ -19896,7 +19896,7 @@
         <v>42766</v>
       </c>
       <c r="E336" s="5">
-        <f>FLOOR(B336-D336,1/24)</f>
+        <f t="shared" si="5"/>
         <v>0.41666666666666663</v>
       </c>
       <c r="F336" s="1" t="s">
@@ -19933,7 +19933,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="337" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>480</v>
       </c>
@@ -19948,7 +19948,7 @@
         <v>43144</v>
       </c>
       <c r="E337" s="5">
-        <f>FLOOR(B337-D337,1/24)</f>
+        <f t="shared" si="5"/>
         <v>0.45833333333333331</v>
       </c>
       <c r="F337" s="1" t="s">
@@ -20000,7 +20000,7 @@
         <v>42738</v>
       </c>
       <c r="E338" s="5">
-        <f>FLOOR(B338-D338,1/24)</f>
+        <f t="shared" si="5"/>
         <v>0.45833333333333331</v>
       </c>
       <c r="F338" s="1" t="s">
@@ -20052,7 +20052,7 @@
         <v>42955</v>
       </c>
       <c r="E339" s="5">
-        <f>FLOOR(B339-D339,1/24)</f>
+        <f t="shared" si="5"/>
         <v>0.45833333333333331</v>
       </c>
       <c r="F339" s="1" t="s">
@@ -20089,7 +20089,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="340" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>71</v>
       </c>
@@ -20104,7 +20104,7 @@
         <v>42801</v>
       </c>
       <c r="E340" s="5">
-        <f>FLOOR(B340-D340,1/24)</f>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="F340" s="1" t="s">
@@ -20156,7 +20156,7 @@
         <v>42850</v>
       </c>
       <c r="E341" s="5">
-        <f>FLOOR(B341-D341,1/24)</f>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="F341" s="1" t="s">
@@ -20193,7 +20193,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="342" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>590</v>
       </c>
@@ -20208,7 +20208,7 @@
         <v>43221</v>
       </c>
       <c r="E342" s="5">
-        <f>FLOOR(B342-D342,1/24)</f>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="F342" s="1" t="s">
@@ -20245,7 +20245,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="343" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>217</v>
       </c>
@@ -20260,7 +20260,7 @@
         <v>42913</v>
       </c>
       <c r="E343" s="5">
-        <f>FLOOR(B343-D343,1/24)</f>
+        <f t="shared" si="5"/>
         <v>0.54166666666666663</v>
       </c>
       <c r="F343" s="1" t="s">
@@ -20297,7 +20297,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="344" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>225</v>
       </c>
@@ -20312,7 +20312,7 @@
         <v>42920</v>
       </c>
       <c r="E344" s="5">
-        <f>FLOOR(B344-D344,1/24)</f>
+        <f t="shared" si="5"/>
         <v>0.54166666666666663</v>
       </c>
       <c r="F344" s="1" t="s">
@@ -20364,7 +20364,7 @@
         <v>43165</v>
       </c>
       <c r="E345" s="5">
-        <f>FLOOR(B345-D345,1/24)</f>
+        <f t="shared" si="5"/>
         <v>0.58333333333333326</v>
       </c>
       <c r="F345" s="1" t="s">
@@ -20416,7 +20416,7 @@
         <v>42892</v>
       </c>
       <c r="E346" s="5">
-        <f>FLOOR(B346-D346,1/24)</f>
+        <f t="shared" si="5"/>
         <v>0.58333333333333326</v>
       </c>
       <c r="F346" s="1" t="s">
@@ -20468,7 +20468,7 @@
         <v>42948</v>
       </c>
       <c r="E347" s="5">
-        <f>FLOOR(B347-D347,1/24)</f>
+        <f t="shared" si="5"/>
         <v>0.58333333333333326</v>
       </c>
       <c r="F347" s="1" t="s">
@@ -20520,7 +20520,7 @@
         <v>42885</v>
       </c>
       <c r="E348" s="5">
-        <f>FLOOR(B348-D348,1/24)</f>
+        <f t="shared" si="5"/>
         <v>0.58333333333333326</v>
       </c>
       <c r="F348" s="1" t="s">
@@ -20572,7 +20572,7 @@
         <v>43130</v>
       </c>
       <c r="E349" s="5">
-        <f>FLOOR(B349-D349,1/24)</f>
+        <f t="shared" si="5"/>
         <v>0.625</v>
       </c>
       <c r="F349" s="1" t="s">
@@ -20624,7 +20624,7 @@
         <v>43025</v>
       </c>
       <c r="E350" s="5">
-        <f>FLOOR(B350-D350,1/24)</f>
+        <f t="shared" si="5"/>
         <v>0.625</v>
       </c>
       <c r="F350" s="1" t="s">
@@ -20676,7 +20676,7 @@
         <v>42864</v>
       </c>
       <c r="E351" s="5">
-        <f>FLOOR(B351-D351,1/24)</f>
+        <f t="shared" si="5"/>
         <v>0.625</v>
       </c>
       <c r="F351" s="1" t="s">
@@ -20713,7 +20713,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="352" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>238</v>
       </c>
@@ -20728,7 +20728,7 @@
         <v>42927</v>
       </c>
       <c r="E352" s="5">
-        <f>FLOOR(B352-D352,1/24)</f>
+        <f t="shared" si="5"/>
         <v>0.625</v>
       </c>
       <c r="F352" s="1" t="s">
@@ -20780,7 +20780,7 @@
         <v>43039</v>
       </c>
       <c r="E353" s="5">
-        <f>FLOOR(B353-D353,1/24)</f>
+        <f t="shared" si="5"/>
         <v>0.625</v>
       </c>
       <c r="F353" s="1" t="s">
@@ -20832,7 +20832,7 @@
         <v>42920</v>
       </c>
       <c r="E354" s="5">
-        <f>FLOOR(B354-D354,1/24)</f>
+        <f t="shared" si="5"/>
         <v>0.625</v>
       </c>
       <c r="F354" s="1" t="s">
@@ -20869,7 +20869,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="355" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>576</v>
       </c>
@@ -20884,7 +20884,7 @@
         <v>43179</v>
       </c>
       <c r="E355" s="5">
-        <f>FLOOR(B355-D355,1/24)</f>
+        <f t="shared" si="5"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="F355" s="1" t="s">
@@ -20921,7 +20921,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="356" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>239</v>
       </c>
@@ -20936,7 +20936,7 @@
         <v>42927</v>
       </c>
       <c r="E356" s="5">
-        <f>FLOOR(B356-D356,1/24)</f>
+        <f t="shared" si="5"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="F356" s="1" t="s">
@@ -20973,7 +20973,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="357" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>305</v>
       </c>
@@ -20988,7 +20988,7 @@
         <v>42976</v>
       </c>
       <c r="E357" s="5">
-        <f>FLOOR(B357-D357,1/24)</f>
+        <f t="shared" si="5"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="F357" s="1" t="s">
@@ -21025,7 +21025,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="358" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>259</v>
       </c>
@@ -21040,7 +21040,7 @@
         <v>42941</v>
       </c>
       <c r="E358" s="5">
-        <f>FLOOR(B358-D358,1/24)</f>
+        <f t="shared" si="5"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="F358" s="1" t="s">
@@ -21092,7 +21092,7 @@
         <v>42892</v>
       </c>
       <c r="E359" s="5">
-        <f>FLOOR(B359-D359,1/24)</f>
+        <f t="shared" si="5"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="F359" s="1" t="s">
@@ -21129,7 +21129,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="360" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>337</v>
       </c>
@@ -21144,7 +21144,7 @@
         <v>43004</v>
       </c>
       <c r="E360" s="5">
-        <f>FLOOR(B360-D360,1/24)</f>
+        <f t="shared" si="5"/>
         <v>0.70833333333333326</v>
       </c>
       <c r="F360" s="1" t="s">
@@ -21181,7 +21181,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="361" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>77</v>
       </c>
@@ -21196,7 +21196,7 @@
         <v>42808</v>
       </c>
       <c r="E361" s="5">
-        <f>FLOOR(B361-D361,1/24)</f>
+        <f t="shared" si="5"/>
         <v>0.70833333333333326</v>
       </c>
       <c r="F361" s="1" t="s">
@@ -21233,7 +21233,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="362" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>591</v>
       </c>
@@ -21248,7 +21248,7 @@
         <v>43221</v>
       </c>
       <c r="E362" s="5">
-        <f>FLOOR(B362-D362,1/24)</f>
+        <f t="shared" si="5"/>
         <v>0.70833333333333326</v>
       </c>
       <c r="F362" s="1" t="s">
@@ -21285,7 +21285,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="363" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>174</v>
       </c>
@@ -21300,7 +21300,7 @@
         <v>42878</v>
       </c>
       <c r="E363" s="5">
-        <f>FLOOR(B363-D363,1/24)</f>
+        <f t="shared" si="5"/>
         <v>0.70833333333333326</v>
       </c>
       <c r="F363" s="1" t="s">
@@ -21352,7 +21352,7 @@
         <v>43039</v>
       </c>
       <c r="E364" s="5">
-        <f>FLOOR(B364-D364,1/24)</f>
+        <f t="shared" si="5"/>
         <v>0.75</v>
       </c>
       <c r="F364" s="1" t="s">
@@ -21404,7 +21404,7 @@
         <v>42927</v>
       </c>
       <c r="E365" s="5">
-        <f>FLOOR(B365-D365,1/24)</f>
+        <f t="shared" si="5"/>
         <v>0.75</v>
       </c>
       <c r="F365" s="1" t="s">
@@ -21441,7 +21441,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="366" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>165</v>
       </c>
@@ -21456,7 +21456,7 @@
         <v>42871</v>
       </c>
       <c r="E366" s="5">
-        <f>FLOOR(B366-D366,1/24)</f>
+        <f t="shared" si="5"/>
         <v>0.75</v>
       </c>
       <c r="F366" s="1" t="s">
@@ -21493,7 +21493,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="367" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>584</v>
       </c>
@@ -21508,7 +21508,7 @@
         <v>43186</v>
       </c>
       <c r="E367" s="5">
-        <f>FLOOR(B367-D367,1/24)</f>
+        <f t="shared" si="5"/>
         <v>0.75</v>
       </c>
       <c r="F367" s="1" t="s">
@@ -21560,7 +21560,7 @@
         <v>43263</v>
       </c>
       <c r="E368" s="5">
-        <f>FLOOR(B368-D368,1/24)</f>
+        <f t="shared" si="5"/>
         <v>0.75</v>
       </c>
       <c r="F368" s="1" t="s">
@@ -21612,7 +21612,7 @@
         <v>43025</v>
       </c>
       <c r="E369" s="5">
-        <f>FLOOR(B369-D369,1/24)</f>
+        <f t="shared" si="5"/>
         <v>0.75</v>
       </c>
       <c r="F369" s="1" t="s">
@@ -21664,7 +21664,7 @@
         <v>42815</v>
       </c>
       <c r="E370" s="5">
-        <f>FLOOR(B370-D370,1/24)</f>
+        <f t="shared" si="5"/>
         <v>0.75</v>
       </c>
       <c r="F370" s="1" t="s">
@@ -21716,7 +21716,7 @@
         <v>42934</v>
       </c>
       <c r="E371" s="5">
-        <f>FLOOR(B371-D371,1/24)</f>
+        <f t="shared" si="5"/>
         <v>0.79166666666666663</v>
       </c>
       <c r="F371" s="1" t="s">
@@ -21753,7 +21753,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="372" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>640</v>
       </c>
@@ -21768,7 +21768,7 @@
         <v>43263</v>
       </c>
       <c r="E372" s="5">
-        <f>FLOOR(B372-D372,1/24)</f>
+        <f t="shared" si="5"/>
         <v>0.79166666666666663</v>
       </c>
       <c r="F372" s="1" t="s">
@@ -21820,7 +21820,7 @@
         <v>43116</v>
       </c>
       <c r="E373" s="5">
-        <f>FLOOR(B373-D373,1/24)</f>
+        <f t="shared" si="5"/>
         <v>0.79166666666666663</v>
       </c>
       <c r="F373" s="1" t="s">
@@ -21857,7 +21857,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="374" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>404</v>
       </c>
@@ -21872,7 +21872,7 @@
         <v>43067</v>
       </c>
       <c r="E374" s="5">
-        <f>FLOOR(B374-D374,1/24)</f>
+        <f t="shared" si="5"/>
         <v>0.83333333333333326</v>
       </c>
       <c r="F374" s="1" t="s">
@@ -21924,7 +21924,7 @@
         <v>43018</v>
       </c>
       <c r="E375" s="5">
-        <f>FLOOR(B375-D375,1/24)</f>
+        <f t="shared" si="5"/>
         <v>0.83333333333333326</v>
       </c>
       <c r="F375" s="1" t="s">
@@ -21961,7 +21961,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="376" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>141</v>
       </c>
@@ -21976,7 +21976,7 @@
         <v>42857</v>
       </c>
       <c r="E376" s="5">
-        <f>FLOOR(B376-D376,1/24)</f>
+        <f t="shared" si="5"/>
         <v>0.83333333333333326</v>
       </c>
       <c r="F376" s="1" t="s">
@@ -22013,7 +22013,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="377" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>55</v>
       </c>
@@ -22028,7 +22028,7 @@
         <v>42787</v>
       </c>
       <c r="E377" s="5">
-        <f>FLOOR(B377-D377,1/24)</f>
+        <f t="shared" si="5"/>
         <v>0.83333333333333326</v>
       </c>
       <c r="F377" s="1" t="s">
@@ -22080,7 +22080,7 @@
         <v>42976</v>
       </c>
       <c r="E378" s="5">
-        <f>FLOOR(B378-D378,1/24)</f>
+        <f t="shared" si="5"/>
         <v>0.83333333333333326</v>
       </c>
       <c r="F378" s="1" t="s">
@@ -22132,7 +22132,7 @@
         <v>43102</v>
       </c>
       <c r="E379" s="5">
-        <f>FLOOR(B379-D379,1/24)</f>
+        <f t="shared" si="5"/>
         <v>0.875</v>
       </c>
       <c r="F379" s="1" t="s">
@@ -22184,7 +22184,7 @@
         <v>42997</v>
       </c>
       <c r="E380" s="5">
-        <f>FLOOR(B380-D380,1/24)</f>
+        <f t="shared" si="5"/>
         <v>0.875</v>
       </c>
       <c r="F380" s="1" t="s">
@@ -22221,7 +22221,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="381" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>553</v>
       </c>
@@ -22236,7 +22236,7 @@
         <v>43165</v>
       </c>
       <c r="E381" s="5">
-        <f>FLOOR(B381-D381,1/24)</f>
+        <f t="shared" si="5"/>
         <v>0.875</v>
       </c>
       <c r="F381" s="1" t="s">
@@ -22288,7 +22288,7 @@
         <v>43172</v>
       </c>
       <c r="E382" s="5">
-        <f>FLOOR(B382-D382,1/24)</f>
+        <f t="shared" si="5"/>
         <v>0.875</v>
       </c>
       <c r="F382" s="1" t="s">
@@ -22325,7 +22325,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="383" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>598</v>
       </c>
@@ -22340,7 +22340,7 @@
         <v>43228</v>
       </c>
       <c r="E383" s="5">
-        <f>FLOOR(B383-D383,1/24)</f>
+        <f t="shared" si="5"/>
         <v>0.91666666666666663</v>
       </c>
       <c r="F383" s="1" t="s">
@@ -22377,7 +22377,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="384" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>64</v>
       </c>
@@ -22392,7 +22392,7 @@
         <v>42794</v>
       </c>
       <c r="E384" s="5">
-        <f>FLOOR(B384-D384,1/24)</f>
+        <f t="shared" si="5"/>
         <v>0.95833333333333326</v>
       </c>
       <c r="F384" s="1" t="s">
@@ -22444,7 +22444,7 @@
         <v>43018</v>
       </c>
       <c r="E385" s="5">
-        <f>FLOOR(B385-D385,1/24)</f>
+        <f t="shared" si="5"/>
         <v>0.95833333333333326</v>
       </c>
       <c r="F385" s="1" t="s">
@@ -22481,7 +22481,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="386" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>121</v>
       </c>
@@ -22496,7 +22496,7 @@
         <v>42843</v>
       </c>
       <c r="E386" s="5">
-        <f>FLOOR(B386-D386,1/24)</f>
+        <f t="shared" ref="E386:E449" si="6">FLOOR(B386-D386,1/24)</f>
         <v>0.95833333333333326</v>
       </c>
       <c r="F386" s="1" t="s">
@@ -22548,7 +22548,7 @@
         <v>43200</v>
       </c>
       <c r="E387" s="5">
-        <f>FLOOR(B387-D387,1/24)</f>
+        <f t="shared" si="6"/>
         <v>0.95833333333333326</v>
       </c>
       <c r="F387" s="1" t="s">
@@ -22600,7 +22600,7 @@
         <v>42753</v>
       </c>
       <c r="E388" s="5">
-        <f>FLOOR(B388-D388,1/24)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F388" s="1" t="s">
@@ -22652,7 +22652,7 @@
         <v>42844</v>
       </c>
       <c r="E389" s="5">
-        <f>FLOOR(B389-D389,1/24)</f>
+        <f t="shared" si="6"/>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F389" s="1" t="s">
@@ -22704,7 +22704,7 @@
         <v>43082</v>
       </c>
       <c r="E390" s="5">
-        <f>FLOOR(B390-D390,1/24)</f>
+        <f t="shared" si="6"/>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F390" s="1" t="s">
@@ -22741,7 +22741,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="391" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>599</v>
       </c>
@@ -22756,7 +22756,7 @@
         <v>43229</v>
       </c>
       <c r="E391" s="5">
-        <f>FLOOR(B391-D391,1/24)</f>
+        <f t="shared" si="6"/>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F391" s="1" t="s">
@@ -22793,7 +22793,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="392" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>32</v>
       </c>
@@ -22808,7 +22808,7 @@
         <v>42767</v>
       </c>
       <c r="E392" s="5">
-        <f>FLOOR(B392-D392,1/24)</f>
+        <f t="shared" si="6"/>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="F392" s="1" t="s">
@@ -22860,7 +22860,7 @@
         <v>42781</v>
       </c>
       <c r="E393" s="5">
-        <f>FLOOR(B393-D393,1/24)</f>
+        <f t="shared" si="6"/>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="F393" s="1" t="s">
@@ -22897,7 +22897,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="394" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <v>113</v>
       </c>
@@ -22912,7 +22912,7 @@
         <v>42837</v>
       </c>
       <c r="E394" s="5">
-        <f>FLOOR(B394-D394,1/24)</f>
+        <f t="shared" si="6"/>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="F394" s="1" t="s">
@@ -22964,7 +22964,7 @@
         <v>42935</v>
       </c>
       <c r="E395" s="5">
-        <f>FLOOR(B395-D395,1/24)</f>
+        <f t="shared" si="6"/>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="F395" s="1" t="s">
@@ -23016,7 +23016,7 @@
         <v>42942</v>
       </c>
       <c r="E396" s="5">
-        <f>FLOOR(B396-D396,1/24)</f>
+        <f t="shared" si="6"/>
         <v>0.125</v>
       </c>
       <c r="F396" s="1" t="s">
@@ -23068,7 +23068,7 @@
         <v>43215</v>
       </c>
       <c r="E397" s="5">
-        <f>FLOOR(B397-D397,1/24)</f>
+        <f t="shared" si="6"/>
         <v>0.125</v>
       </c>
       <c r="F397" s="1" t="s">
@@ -23120,7 +23120,7 @@
         <v>43257</v>
       </c>
       <c r="E398" s="5">
-        <f>FLOOR(B398-D398,1/24)</f>
+        <f t="shared" si="6"/>
         <v>0.125</v>
       </c>
       <c r="F398" s="1" t="s">
@@ -23172,7 +23172,7 @@
         <v>42991</v>
       </c>
       <c r="E399" s="5">
-        <f>FLOOR(B399-D399,1/24)</f>
+        <f t="shared" si="6"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="F399" s="1" t="s">
@@ -23209,7 +23209,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="400" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>82</v>
       </c>
@@ -23224,7 +23224,7 @@
         <v>42816</v>
       </c>
       <c r="E400" s="5">
-        <f>FLOOR(B400-D400,1/24)</f>
+        <f t="shared" si="6"/>
         <v>0.20833333333333331</v>
       </c>
       <c r="F400" s="1" t="s">
@@ -23276,7 +23276,7 @@
         <v>42991</v>
       </c>
       <c r="E401" s="5">
-        <f>FLOOR(B401-D401,1/24)</f>
+        <f t="shared" si="6"/>
         <v>0.20833333333333331</v>
       </c>
       <c r="F401" s="1" t="s">
@@ -23313,7 +23313,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="402" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>91</v>
       </c>
@@ -23328,7 +23328,7 @@
         <v>42823</v>
       </c>
       <c r="E402" s="5">
-        <f>FLOOR(B402-D402,1/24)</f>
+        <f t="shared" si="6"/>
         <v>0.20833333333333331</v>
       </c>
       <c r="F402" s="1" t="s">
@@ -23365,7 +23365,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="403" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>405</v>
       </c>
@@ -23380,7 +23380,7 @@
         <v>43068</v>
       </c>
       <c r="E403" s="5">
-        <f>FLOOR(B403-D403,1/24)</f>
+        <f t="shared" si="6"/>
         <v>0.25</v>
       </c>
       <c r="F403" s="1" t="s">
@@ -23417,7 +23417,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="404" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>83</v>
       </c>
@@ -23432,7 +23432,7 @@
         <v>42816</v>
       </c>
       <c r="E404" s="5">
-        <f>FLOOR(B404-D404,1/24)</f>
+        <f t="shared" si="6"/>
         <v>0.25</v>
       </c>
       <c r="F404" s="1" t="s">
@@ -23484,7 +23484,7 @@
         <v>43075</v>
       </c>
       <c r="E405" s="5">
-        <f>FLOOR(B405-D405,1/24)</f>
+        <f t="shared" si="6"/>
         <v>0.25</v>
       </c>
       <c r="F405" s="1" t="s">
@@ -23521,7 +23521,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="406" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>261</v>
       </c>
@@ -23536,7 +23536,7 @@
         <v>42942</v>
       </c>
       <c r="E406" s="5">
-        <f>FLOOR(B406-D406,1/24)</f>
+        <f t="shared" si="6"/>
         <v>0.29166666666666663</v>
       </c>
       <c r="F406" s="1" t="s">
@@ -23573,7 +23573,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="407" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>287</v>
       </c>
@@ -23588,7 +23588,7 @@
         <v>42963</v>
       </c>
       <c r="E407" s="5">
-        <f>FLOOR(B407-D407,1/24)</f>
+        <f t="shared" si="6"/>
         <v>0.29166666666666663</v>
       </c>
       <c r="F407" s="1" t="s">
@@ -23640,7 +23640,7 @@
         <v>43201</v>
       </c>
       <c r="E408" s="5">
-        <f>FLOOR(B408-D408,1/24)</f>
+        <f t="shared" si="6"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="F408" s="1" t="s">
@@ -23677,7 +23677,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="409" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <v>288</v>
       </c>
@@ -23692,7 +23692,7 @@
         <v>42963</v>
       </c>
       <c r="E409" s="5">
-        <f>FLOOR(B409-D409,1/24)</f>
+        <f t="shared" si="6"/>
         <v>0.375</v>
       </c>
       <c r="F409" s="1" t="s">
@@ -23729,7 +23729,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="410" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <v>426</v>
       </c>
@@ -23744,7 +23744,7 @@
         <v>43082</v>
       </c>
       <c r="E410" s="5">
-        <f>FLOOR(B410-D410,1/24)</f>
+        <f t="shared" si="6"/>
         <v>0.375</v>
       </c>
       <c r="F410" s="1" t="s">
@@ -23796,7 +23796,7 @@
         <v>43201</v>
       </c>
       <c r="E411" s="5">
-        <f>FLOOR(B411-D411,1/24)</f>
+        <f t="shared" si="6"/>
         <v>0.375</v>
       </c>
       <c r="F411" s="1" t="s">
@@ -23848,7 +23848,7 @@
         <v>43215</v>
       </c>
       <c r="E412" s="5">
-        <f>FLOOR(B412-D412,1/24)</f>
+        <f t="shared" si="6"/>
         <v>0.375</v>
       </c>
       <c r="F412" s="1" t="s">
@@ -23900,7 +23900,7 @@
         <v>42914</v>
       </c>
       <c r="E413" s="5">
-        <f>FLOOR(B413-D413,1/24)</f>
+        <f t="shared" si="6"/>
         <v>0.375</v>
       </c>
       <c r="F413" s="1" t="s">
@@ -23937,7 +23937,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="414" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <v>647</v>
       </c>
@@ -23952,7 +23952,7 @@
         <v>43271</v>
       </c>
       <c r="E414" s="5">
-        <f>FLOOR(B414-D414,1/24)</f>
+        <f t="shared" si="6"/>
         <v>0.41666666666666663</v>
       </c>
       <c r="F414" s="1" t="s">
@@ -23989,7 +23989,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="415" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <v>179</v>
       </c>
@@ -24004,7 +24004,7 @@
         <v>42886</v>
       </c>
       <c r="E415" s="5">
-        <f>FLOOR(B415-D415,1/24)</f>
+        <f t="shared" si="6"/>
         <v>0.41666666666666663</v>
       </c>
       <c r="F415" s="1" t="s">
@@ -24041,7 +24041,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="416" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
         <v>227</v>
       </c>
@@ -24056,7 +24056,7 @@
         <v>42921</v>
       </c>
       <c r="E416" s="5">
-        <f>FLOOR(B416-D416,1/24)</f>
+        <f t="shared" si="6"/>
         <v>0.41666666666666663</v>
       </c>
       <c r="F416" s="1" t="s">
@@ -24108,7 +24108,7 @@
         <v>43096</v>
       </c>
       <c r="E417" s="5">
-        <f>FLOOR(B417-D417,1/24)</f>
+        <f t="shared" si="6"/>
         <v>0.41666666666666663</v>
       </c>
       <c r="F417" s="1" t="s">
@@ -24160,7 +24160,7 @@
         <v>42746</v>
       </c>
       <c r="E418" s="5">
-        <f>FLOOR(B418-D418,1/24)</f>
+        <f t="shared" si="6"/>
         <v>0.45833333333333331</v>
       </c>
       <c r="F418" s="1" t="s">
@@ -24212,7 +24212,7 @@
         <v>43033</v>
       </c>
       <c r="E419" s="5">
-        <f>FLOOR(B419-D419,1/24)</f>
+        <f t="shared" si="6"/>
         <v>0.45833333333333331</v>
       </c>
       <c r="F419" s="1" t="s">
@@ -24249,7 +24249,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="420" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
         <v>123</v>
       </c>
@@ -24264,7 +24264,7 @@
         <v>42844</v>
       </c>
       <c r="E420" s="5">
-        <f>FLOOR(B420-D420,1/24)</f>
+        <f t="shared" si="6"/>
         <v>0.45833333333333331</v>
       </c>
       <c r="F420" s="1" t="s">
@@ -24301,7 +24301,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="421" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <v>296</v>
       </c>
@@ -24316,7 +24316,7 @@
         <v>42970</v>
       </c>
       <c r="E421" s="5">
-        <f>FLOOR(B421-D421,1/24)</f>
+        <f t="shared" si="6"/>
         <v>0.45833333333333331</v>
       </c>
       <c r="F421" s="1" t="s">
@@ -24353,7 +24353,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="422" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
         <v>45</v>
       </c>
@@ -24368,7 +24368,7 @@
         <v>42781</v>
       </c>
       <c r="E422" s="5">
-        <f>FLOOR(B422-D422,1/24)</f>
+        <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
       <c r="F422" s="1" t="s">
@@ -24405,7 +24405,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="423" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
         <v>84</v>
       </c>
@@ -24420,7 +24420,7 @@
         <v>42816</v>
       </c>
       <c r="E423" s="5">
-        <f>FLOOR(B423-D423,1/24)</f>
+        <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
       <c r="F423" s="1" t="s">
@@ -24457,7 +24457,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="424" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
         <v>327</v>
       </c>
@@ -24472,7 +24472,7 @@
         <v>42998</v>
       </c>
       <c r="E424" s="5">
-        <f>FLOOR(B424-D424,1/24)</f>
+        <f t="shared" si="6"/>
         <v>0.54166666666666663</v>
       </c>
       <c r="F424" s="1" t="s">
@@ -24524,7 +24524,7 @@
         <v>42823</v>
       </c>
       <c r="E425" s="5">
-        <f>FLOOR(B425-D425,1/24)</f>
+        <f t="shared" si="6"/>
         <v>0.54166666666666663</v>
       </c>
       <c r="F425" s="1" t="s">
@@ -24576,7 +24576,7 @@
         <v>43005</v>
       </c>
       <c r="E426" s="5">
-        <f>FLOOR(B426-D426,1/24)</f>
+        <f t="shared" si="6"/>
         <v>0.54166666666666663</v>
       </c>
       <c r="F426" s="1" t="s">
@@ -24613,7 +24613,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="427" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
         <v>315</v>
       </c>
@@ -24628,7 +24628,7 @@
         <v>42984</v>
       </c>
       <c r="E427" s="5">
-        <f>FLOOR(B427-D427,1/24)</f>
+        <f t="shared" si="6"/>
         <v>0.54166666666666663</v>
       </c>
       <c r="F427" s="1" t="s">
@@ -24680,7 +24680,7 @@
         <v>43033</v>
       </c>
       <c r="E428" s="5">
-        <f>FLOOR(B428-D428,1/24)</f>
+        <f t="shared" si="6"/>
         <v>0.54166666666666663</v>
       </c>
       <c r="F428" s="1" t="s">
@@ -24717,7 +24717,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="429" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
         <v>322</v>
       </c>
@@ -24732,7 +24732,7 @@
         <v>42991</v>
       </c>
       <c r="E429" s="5">
-        <f>FLOOR(B429-D429,1/24)</f>
+        <f t="shared" si="6"/>
         <v>0.54166666666666663</v>
       </c>
       <c r="F429" s="1" t="s">
@@ -24769,7 +24769,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="430" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
         <v>297</v>
       </c>
@@ -24784,7 +24784,7 @@
         <v>42970</v>
       </c>
       <c r="E430" s="5">
-        <f>FLOOR(B430-D430,1/24)</f>
+        <f t="shared" si="6"/>
         <v>0.58333333333333326</v>
       </c>
       <c r="F430" s="1" t="s">
@@ -24821,7 +24821,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="431" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
         <v>641</v>
       </c>
@@ -24836,7 +24836,7 @@
         <v>43264</v>
       </c>
       <c r="E431" s="5">
-        <f>FLOOR(B431-D431,1/24)</f>
+        <f t="shared" si="6"/>
         <v>0.625</v>
       </c>
       <c r="F431" s="1" t="s">
@@ -24888,7 +24888,7 @@
         <v>42921</v>
       </c>
       <c r="E432" s="5">
-        <f>FLOOR(B432-D432,1/24)</f>
+        <f t="shared" si="6"/>
         <v>0.625</v>
       </c>
       <c r="F432" s="1" t="s">
@@ -24940,7 +24940,7 @@
         <v>42907</v>
       </c>
       <c r="E433" s="5">
-        <f>FLOOR(B433-D433,1/24)</f>
+        <f t="shared" si="6"/>
         <v>0.625</v>
       </c>
       <c r="F433" s="1" t="s">
@@ -24992,7 +24992,7 @@
         <v>43103</v>
       </c>
       <c r="E434" s="5">
-        <f>FLOOR(B434-D434,1/24)</f>
+        <f t="shared" si="6"/>
         <v>0.625</v>
       </c>
       <c r="F434" s="1" t="s">
@@ -25044,7 +25044,7 @@
         <v>43194</v>
       </c>
       <c r="E435" s="5">
-        <f>FLOOR(B435-D435,1/24)</f>
+        <f t="shared" si="6"/>
         <v>0.625</v>
       </c>
       <c r="F435" s="1" t="s">
@@ -25096,7 +25096,7 @@
         <v>43068</v>
       </c>
       <c r="E436" s="5">
-        <f>FLOOR(B436-D436,1/24)</f>
+        <f t="shared" si="6"/>
         <v>0.625</v>
       </c>
       <c r="F436" s="1" t="s">
@@ -25133,7 +25133,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="437" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
         <v>616</v>
       </c>
@@ -25148,7 +25148,7 @@
         <v>43243</v>
       </c>
       <c r="E437" s="5">
-        <f>FLOOR(B437-D437,1/24)</f>
+        <f t="shared" si="6"/>
         <v>0.625</v>
       </c>
       <c r="F437" s="1" t="s">
@@ -25185,7 +25185,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="438" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
         <v>100</v>
       </c>
@@ -25200,7 +25200,7 @@
         <v>42830</v>
       </c>
       <c r="E438" s="5">
-        <f>FLOOR(B438-D438,1/24)</f>
+        <f t="shared" si="6"/>
         <v>0.625</v>
       </c>
       <c r="F438" s="1" t="s">
@@ -25237,7 +25237,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="439" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
         <v>65</v>
       </c>
@@ -25252,7 +25252,7 @@
         <v>42795</v>
       </c>
       <c r="E439" s="5">
-        <f>FLOOR(B439-D439,1/24)</f>
+        <f t="shared" si="6"/>
         <v>0.625</v>
       </c>
       <c r="F439" s="1" t="s">
@@ -25289,7 +25289,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="440" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
         <v>72</v>
       </c>
@@ -25304,7 +25304,7 @@
         <v>42802</v>
       </c>
       <c r="E440" s="5">
-        <f>FLOOR(B440-D440,1/24)</f>
+        <f t="shared" si="6"/>
         <v>0.625</v>
       </c>
       <c r="F440" s="1" t="s">
@@ -25356,7 +25356,7 @@
         <v>42865</v>
       </c>
       <c r="E441" s="5">
-        <f>FLOOR(B441-D441,1/24)</f>
+        <f t="shared" si="6"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="F441" s="1" t="s">
@@ -25393,7 +25393,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="442" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
         <v>447</v>
       </c>
@@ -25408,7 +25408,7 @@
         <v>43103</v>
       </c>
       <c r="E442" s="5">
-        <f>FLOOR(B442-D442,1/24)</f>
+        <f t="shared" si="6"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="F442" s="1" t="s">
@@ -25445,7 +25445,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="443" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
         <v>124</v>
       </c>
@@ -25460,7 +25460,7 @@
         <v>42844</v>
       </c>
       <c r="E443" s="5">
-        <f>FLOOR(B443-D443,1/24)</f>
+        <f t="shared" si="6"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="F443" s="1" t="s">
@@ -25512,7 +25512,7 @@
         <v>42963</v>
       </c>
       <c r="E444" s="5">
-        <f>FLOOR(B444-D444,1/24)</f>
+        <f t="shared" si="6"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="F444" s="1" t="s">
@@ -25564,7 +25564,7 @@
         <v>43180</v>
       </c>
       <c r="E445" s="5">
-        <f>FLOOR(B445-D445,1/24)</f>
+        <f t="shared" si="6"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="F445" s="1" t="s">
@@ -25616,7 +25616,7 @@
         <v>42998</v>
       </c>
       <c r="E446" s="5">
-        <f>FLOOR(B446-D446,1/24)</f>
+        <f t="shared" si="6"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="F446" s="1" t="s">
@@ -25668,7 +25668,7 @@
         <v>42753</v>
       </c>
       <c r="E447" s="5">
-        <f>FLOOR(B447-D447,1/24)</f>
+        <f t="shared" si="6"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="F447" s="1" t="s">
@@ -25705,7 +25705,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="448" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
         <v>46</v>
       </c>
@@ -25720,7 +25720,7 @@
         <v>42781</v>
       </c>
       <c r="E448" s="5">
-        <f>FLOOR(B448-D448,1/24)</f>
+        <f t="shared" si="6"/>
         <v>0.70833333333333326</v>
       </c>
       <c r="F448" s="1" t="s">
@@ -25757,7 +25757,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="449" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
         <v>138</v>
       </c>
@@ -25772,7 +25772,7 @@
         <v>42851</v>
       </c>
       <c r="E449" s="5">
-        <f>FLOOR(B449-D449,1/24)</f>
+        <f t="shared" si="6"/>
         <v>0.70833333333333326</v>
       </c>
       <c r="F449" s="1" t="s">
@@ -25824,7 +25824,7 @@
         <v>43250</v>
       </c>
       <c r="E450" s="5">
-        <f>FLOOR(B450-D450,1/24)</f>
+        <f t="shared" ref="E450:E513" si="7">FLOOR(B450-D450,1/24)</f>
         <v>0.70833333333333326</v>
       </c>
       <c r="F450" s="1" t="s">
@@ -25861,7 +25861,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="451" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
         <v>241</v>
       </c>
@@ -25876,7 +25876,7 @@
         <v>42928</v>
       </c>
       <c r="E451" s="5">
-        <f>FLOOR(B451-D451,1/24)</f>
+        <f t="shared" si="7"/>
         <v>0.70833333333333326</v>
       </c>
       <c r="F451" s="1" t="s">
@@ -25913,7 +25913,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="452" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
         <v>39</v>
       </c>
@@ -25928,7 +25928,7 @@
         <v>42774</v>
       </c>
       <c r="E452" s="5">
-        <f>FLOOR(B452-D452,1/24)</f>
+        <f t="shared" si="7"/>
         <v>0.70833333333333326</v>
       </c>
       <c r="F452" s="1" t="s">
@@ -25965,7 +25965,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="453" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
         <v>278</v>
       </c>
@@ -25980,7 +25980,7 @@
         <v>42949</v>
       </c>
       <c r="E453" s="5">
-        <f>FLOOR(B453-D453,1/24)</f>
+        <f t="shared" si="7"/>
         <v>0.70833333333333326</v>
       </c>
       <c r="F453" s="1" t="s">
@@ -26017,7 +26017,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="454" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
         <v>617</v>
       </c>
@@ -26032,7 +26032,7 @@
         <v>43243</v>
       </c>
       <c r="E454" s="5">
-        <f>FLOOR(B454-D454,1/24)</f>
+        <f t="shared" si="7"/>
         <v>0.70833333333333326</v>
       </c>
       <c r="F454" s="1" t="s">
@@ -26069,7 +26069,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="455" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A455" s="1">
         <v>242</v>
       </c>
@@ -26084,7 +26084,7 @@
         <v>42928</v>
       </c>
       <c r="E455" s="5">
-        <f>FLOOR(B455-D455,1/24)</f>
+        <f t="shared" si="7"/>
         <v>0.70833333333333326</v>
       </c>
       <c r="F455" s="1" t="s">
@@ -26136,7 +26136,7 @@
         <v>43250</v>
       </c>
       <c r="E456" s="5">
-        <f>FLOOR(B456-D456,1/24)</f>
+        <f t="shared" si="7"/>
         <v>0.75</v>
       </c>
       <c r="F456" s="1" t="s">
@@ -26173,7 +26173,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="457" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A457" s="1">
         <v>607</v>
       </c>
@@ -26188,7 +26188,7 @@
         <v>43236</v>
       </c>
       <c r="E457" s="5">
-        <f>FLOOR(B457-D457,1/24)</f>
+        <f t="shared" si="7"/>
         <v>0.75</v>
       </c>
       <c r="F457" s="1" t="s">
@@ -26225,7 +26225,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="458" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A458" s="1">
         <v>66</v>
       </c>
@@ -26240,7 +26240,7 @@
         <v>42795</v>
       </c>
       <c r="E458" s="5">
-        <f>FLOOR(B458-D458,1/24)</f>
+        <f t="shared" si="7"/>
         <v>0.75</v>
       </c>
       <c r="F458" s="1" t="s">
@@ -26277,7 +26277,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="459" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A459" s="1">
         <v>230</v>
       </c>
@@ -26292,7 +26292,7 @@
         <v>42921</v>
       </c>
       <c r="E459" s="5">
-        <f>FLOOR(B459-D459,1/24)</f>
+        <f t="shared" si="7"/>
         <v>0.79166666666666663</v>
       </c>
       <c r="F459" s="1" t="s">
@@ -26344,7 +26344,7 @@
         <v>42907</v>
       </c>
       <c r="E460" s="5">
-        <f>FLOOR(B460-D460,1/24)</f>
+        <f t="shared" si="7"/>
         <v>0.79166666666666663</v>
       </c>
       <c r="F460" s="1" t="s">
@@ -26381,7 +26381,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="461" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A461" s="1">
         <v>532</v>
       </c>
@@ -26396,7 +26396,7 @@
         <v>43215</v>
       </c>
       <c r="E461" s="5">
-        <f>FLOOR(B461-D461,1/24)</f>
+        <f t="shared" si="7"/>
         <v>0.79166666666666663</v>
       </c>
       <c r="F461" s="1" t="s">
@@ -26433,7 +26433,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="462" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A462" s="1">
         <v>631</v>
       </c>
@@ -26448,7 +26448,7 @@
         <v>43257</v>
       </c>
       <c r="E462" s="5">
-        <f>FLOOR(B462-D462,1/24)</f>
+        <f t="shared" si="7"/>
         <v>0.79166666666666663</v>
       </c>
       <c r="F462" s="1" t="s">
@@ -26500,7 +26500,7 @@
         <v>43208</v>
       </c>
       <c r="E463" s="5">
-        <f>FLOOR(B463-D463,1/24)</f>
+        <f t="shared" si="7"/>
         <v>0.79166666666666663</v>
       </c>
       <c r="F463" s="1" t="s">
@@ -26552,7 +26552,7 @@
         <v>43131</v>
       </c>
       <c r="E464" s="5">
-        <f>FLOOR(B464-D464,1/24)</f>
+        <f t="shared" si="7"/>
         <v>0.79166666666666663</v>
       </c>
       <c r="F464" s="1" t="s">
@@ -26589,7 +26589,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="465" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A465" s="1">
         <v>211</v>
       </c>
@@ -26604,7 +26604,7 @@
         <v>42907</v>
       </c>
       <c r="E465" s="5">
-        <f>FLOOR(B465-D465,1/24)</f>
+        <f t="shared" si="7"/>
         <v>0.83333333333333326</v>
       </c>
       <c r="F465" s="1" t="s">
@@ -26641,7 +26641,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="466" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A466" s="1">
         <v>563</v>
       </c>
@@ -26656,7 +26656,7 @@
         <v>43173</v>
       </c>
       <c r="E466" s="5">
-        <f>FLOOR(B466-D466,1/24)</f>
+        <f t="shared" si="7"/>
         <v>0.83333333333333326</v>
       </c>
       <c r="F466" s="1" t="s">
@@ -26693,7 +26693,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="467" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A467" s="1">
         <v>648</v>
       </c>
@@ -26708,7 +26708,7 @@
         <v>43271</v>
       </c>
       <c r="E467" s="5">
-        <f>FLOOR(B467-D467,1/24)</f>
+        <f t="shared" si="7"/>
         <v>0.875</v>
       </c>
       <c r="F467" s="1" t="s">
@@ -26760,7 +26760,7 @@
         <v>42858</v>
       </c>
       <c r="E468" s="5">
-        <f>FLOOR(B468-D468,1/24)</f>
+        <f t="shared" si="7"/>
         <v>0.875</v>
       </c>
       <c r="F468" s="1" t="s">
@@ -26812,7 +26812,7 @@
         <v>42942</v>
       </c>
       <c r="E469" s="5">
-        <f>FLOOR(B469-D469,1/24)</f>
+        <f t="shared" si="7"/>
         <v>0.875</v>
       </c>
       <c r="F469" s="1" t="s">
@@ -26849,7 +26849,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="470" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A470" s="1">
         <v>196</v>
       </c>
@@ -26864,7 +26864,7 @@
         <v>42893</v>
       </c>
       <c r="E470" s="5">
-        <f>FLOOR(B470-D470,1/24)</f>
+        <f t="shared" si="7"/>
         <v>0.91666666666666663</v>
       </c>
       <c r="F470" s="1" t="s">
@@ -26916,7 +26916,7 @@
         <v>43159</v>
       </c>
       <c r="E471" s="5">
-        <f>FLOOR(B471-D471,1/24)</f>
+        <f t="shared" si="7"/>
         <v>0.91666666666666663</v>
       </c>
       <c r="F471" s="1" t="s">
@@ -26968,7 +26968,7 @@
         <v>42816</v>
       </c>
       <c r="E472" s="5">
-        <f>FLOOR(B472-D472,1/24)</f>
+        <f t="shared" si="7"/>
         <v>0.91666666666666663</v>
       </c>
       <c r="F472" s="1" t="s">
@@ -27005,7 +27005,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="473" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A473" s="1">
         <v>564</v>
       </c>
@@ -27020,7 +27020,7 @@
         <v>43173</v>
       </c>
       <c r="E473" s="5">
-        <f>FLOOR(B473-D473,1/24)</f>
+        <f t="shared" si="7"/>
         <v>0.95833333333333326</v>
       </c>
       <c r="F473" s="1" t="s">
@@ -27072,7 +27072,7 @@
         <v>42753</v>
       </c>
       <c r="E474" s="5">
-        <f>FLOOR(B474-D474,1/24)</f>
+        <f t="shared" si="7"/>
         <v>0.95833333333333326</v>
       </c>
       <c r="F474" s="1" t="s">
@@ -27124,7 +27124,7 @@
         <v>42789</v>
       </c>
       <c r="E475" s="5">
-        <f>FLOOR(B475-D475,1/24)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F475" s="1" t="s">
@@ -27176,7 +27176,7 @@
         <v>43013</v>
       </c>
       <c r="E476" s="5">
-        <f>FLOOR(B476-D476,1/24)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F476" s="1" t="s">
@@ -27213,7 +27213,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="477" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A477" s="1">
         <v>231</v>
       </c>
@@ -27228,7 +27228,7 @@
         <v>42922</v>
       </c>
       <c r="E477" s="5">
-        <f>FLOOR(B477-D477,1/24)</f>
+        <f t="shared" si="7"/>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F477" s="1" t="s">
@@ -27280,7 +27280,7 @@
         <v>42838</v>
       </c>
       <c r="E478" s="5">
-        <f>FLOOR(B478-D478,1/24)</f>
+        <f t="shared" si="7"/>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="F478" s="1" t="s">
@@ -27317,7 +27317,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="479" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A479" s="1">
         <v>202</v>
       </c>
@@ -27332,7 +27332,7 @@
         <v>42901</v>
       </c>
       <c r="E479" s="5">
-        <f>FLOOR(B479-D479,1/24)</f>
+        <f t="shared" si="7"/>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="F479" s="1" t="s">
@@ -27384,7 +27384,7 @@
         <v>43055</v>
       </c>
       <c r="E480" s="5">
-        <f>FLOOR(B480-D480,1/24)</f>
+        <f t="shared" si="7"/>
         <v>0.125</v>
       </c>
       <c r="F480" s="1" t="s">
@@ -27421,7 +27421,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="481" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A481" s="1">
         <v>473</v>
       </c>
@@ -27436,7 +27436,7 @@
         <v>43132</v>
       </c>
       <c r="E481" s="5">
-        <f>FLOOR(B481-D481,1/24)</f>
+        <f t="shared" si="7"/>
         <v>0.125</v>
       </c>
       <c r="F481" s="1" t="s">
@@ -27473,7 +27473,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="482" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A482" s="1">
         <v>367</v>
       </c>
@@ -27488,7 +27488,7 @@
         <v>43034</v>
       </c>
       <c r="E482" s="5">
-        <f>FLOOR(B482-D482,1/24)</f>
+        <f t="shared" si="7"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="F482" s="1" t="s">
@@ -27525,7 +27525,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="483" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A483" s="1">
         <v>632</v>
       </c>
@@ -27540,7 +27540,7 @@
         <v>43258</v>
       </c>
       <c r="E483" s="5">
-        <f>FLOOR(B483-D483,1/24)</f>
+        <f t="shared" si="7"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="F483" s="1" t="s">
@@ -27577,7 +27577,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="484" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A484" s="1">
         <v>115</v>
       </c>
@@ -27592,7 +27592,7 @@
         <v>42838</v>
       </c>
       <c r="E484" s="5">
-        <f>FLOOR(B484-D484,1/24)</f>
+        <f t="shared" si="7"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="F484" s="1" t="s">
@@ -27644,7 +27644,7 @@
         <v>43265</v>
       </c>
       <c r="E485" s="5">
-        <f>FLOOR(B485-D485,1/24)</f>
+        <f t="shared" si="7"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="F485" s="1" t="s">
@@ -27696,7 +27696,7 @@
         <v>43055</v>
       </c>
       <c r="E486" s="5">
-        <f>FLOOR(B486-D486,1/24)</f>
+        <f t="shared" si="7"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="F486" s="1" t="s">
@@ -27733,7 +27733,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="487" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A487" s="1">
         <v>643</v>
       </c>
@@ -27748,7 +27748,7 @@
         <v>43265</v>
       </c>
       <c r="E487" s="5">
-        <f>FLOOR(B487-D487,1/24)</f>
+        <f t="shared" si="7"/>
         <v>0.20833333333333331</v>
       </c>
       <c r="F487" s="1" t="s">
@@ -27785,7 +27785,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="488" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A488" s="1">
         <v>565</v>
       </c>
@@ -27800,7 +27800,7 @@
         <v>43174</v>
       </c>
       <c r="E488" s="5">
-        <f>FLOOR(B488-D488,1/24)</f>
+        <f t="shared" si="7"/>
         <v>0.25</v>
       </c>
       <c r="F488" s="1" t="s">
@@ -27837,7 +27837,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="489" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A489" s="1">
         <v>73</v>
       </c>
@@ -27852,7 +27852,7 @@
         <v>42803</v>
       </c>
       <c r="E489" s="5">
-        <f>FLOOR(B489-D489,1/24)</f>
+        <f t="shared" si="7"/>
         <v>0.25</v>
       </c>
       <c r="F489" s="1" t="s">
@@ -27889,7 +27889,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="490" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A490" s="1">
         <v>243</v>
       </c>
@@ -27904,7 +27904,7 @@
         <v>42929</v>
       </c>
       <c r="E490" s="5">
-        <f>FLOOR(B490-D490,1/24)</f>
+        <f t="shared" si="7"/>
         <v>0.25</v>
       </c>
       <c r="F490" s="1" t="s">
@@ -27956,7 +27956,7 @@
         <v>43125</v>
       </c>
       <c r="E491" s="5">
-        <f>FLOOR(B491-D491,1/24)</f>
+        <f t="shared" si="7"/>
         <v>0.25</v>
       </c>
       <c r="F491" s="1" t="s">
@@ -27993,7 +27993,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="492" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A492" s="1">
         <v>125</v>
       </c>
@@ -28008,7 +28008,7 @@
         <v>42845</v>
       </c>
       <c r="E492" s="5">
-        <f>FLOOR(B492-D492,1/24)</f>
+        <f t="shared" si="7"/>
         <v>0.29166666666666663</v>
       </c>
       <c r="F492" s="1" t="s">
@@ -28060,7 +28060,7 @@
         <v>43202</v>
       </c>
       <c r="E493" s="5">
-        <f>FLOOR(B493-D493,1/24)</f>
+        <f t="shared" si="7"/>
         <v>0.29166666666666663</v>
       </c>
       <c r="F493" s="1" t="s">
@@ -28097,7 +28097,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="494" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A494" s="1">
         <v>644</v>
       </c>
@@ -28112,7 +28112,7 @@
         <v>43265</v>
       </c>
       <c r="E494" s="5">
-        <f>FLOOR(B494-D494,1/24)</f>
+        <f t="shared" si="7"/>
         <v>0.29166666666666663</v>
       </c>
       <c r="F494" s="1" t="s">
@@ -28164,7 +28164,7 @@
         <v>42873</v>
       </c>
       <c r="E495" s="5">
-        <f>FLOOR(B495-D495,1/24)</f>
+        <f t="shared" si="7"/>
         <v>0.29166666666666663</v>
       </c>
       <c r="F495" s="1" t="s">
@@ -28216,7 +28216,7 @@
         <v>43027</v>
       </c>
       <c r="E496" s="5">
-        <f>FLOOR(B496-D496,1/24)</f>
+        <f t="shared" si="7"/>
         <v>0.29166666666666663</v>
       </c>
       <c r="F496" s="1" t="s">
@@ -28253,7 +28253,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="497" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A497" s="1">
         <v>481</v>
       </c>
@@ -28268,7 +28268,7 @@
         <v>43146</v>
       </c>
       <c r="E497" s="5">
-        <f>FLOOR(B497-D497,1/24)</f>
+        <f t="shared" si="7"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="F497" s="1" t="s">
@@ -28320,7 +28320,7 @@
         <v>42964</v>
       </c>
       <c r="E498" s="5">
-        <f>FLOOR(B498-D498,1/24)</f>
+        <f t="shared" si="7"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="F498" s="1" t="s">
@@ -28357,7 +28357,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="499" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A499" s="1">
         <v>22</v>
       </c>
@@ -28372,7 +28372,7 @@
         <v>42761</v>
       </c>
       <c r="E499" s="5">
-        <f>FLOOR(B499-D499,1/24)</f>
+        <f t="shared" si="7"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="F499" s="1" t="s">
@@ -28409,7 +28409,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="500" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A500" s="1">
         <v>251</v>
       </c>
@@ -28424,7 +28424,7 @@
         <v>42936</v>
       </c>
       <c r="E500" s="5">
-        <f>FLOOR(B500-D500,1/24)</f>
+        <f t="shared" si="7"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="F500" s="1" t="s">
@@ -28476,7 +28476,7 @@
         <v>42929</v>
       </c>
       <c r="E501" s="5">
-        <f>FLOOR(B501-D501,1/24)</f>
+        <f t="shared" si="7"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="F501" s="1" t="s">
@@ -28513,7 +28513,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="502" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A502" s="1">
         <v>502</v>
       </c>
@@ -28528,7 +28528,7 @@
         <v>43195</v>
       </c>
       <c r="E502" s="5">
-        <f>FLOOR(B502-D502,1/24)</f>
+        <f t="shared" si="7"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="F502" s="1" t="s">
@@ -28565,7 +28565,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="503" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A503" s="1">
         <v>430</v>
       </c>
@@ -28580,7 +28580,7 @@
         <v>43090</v>
       </c>
       <c r="E503" s="5">
-        <f>FLOOR(B503-D503,1/24)</f>
+        <f t="shared" si="7"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="F503" s="1" t="s">
@@ -28617,7 +28617,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="504" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A504" s="1">
         <v>339</v>
       </c>
@@ -28632,7 +28632,7 @@
         <v>43006</v>
       </c>
       <c r="E504" s="5">
-        <f>FLOOR(B504-D504,1/24)</f>
+        <f t="shared" si="7"/>
         <v>0.375</v>
       </c>
       <c r="F504" s="1" t="s">
@@ -28684,7 +28684,7 @@
         <v>43048</v>
       </c>
       <c r="E505" s="5">
-        <f>FLOOR(B505-D505,1/24)</f>
+        <f t="shared" si="7"/>
         <v>0.375</v>
       </c>
       <c r="F505" s="1" t="s">
@@ -28736,7 +28736,7 @@
         <v>42831</v>
       </c>
       <c r="E506" s="5">
-        <f>FLOOR(B506-D506,1/24)</f>
+        <f t="shared" si="7"/>
         <v>0.375</v>
       </c>
       <c r="F506" s="1" t="s">
@@ -28788,7 +28788,7 @@
         <v>42943</v>
       </c>
       <c r="E507" s="5">
-        <f>FLOOR(B507-D507,1/24)</f>
+        <f t="shared" si="7"/>
         <v>0.375</v>
       </c>
       <c r="F507" s="1" t="s">
@@ -28825,7 +28825,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="508" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A508" s="1">
         <v>487</v>
       </c>
@@ -28840,7 +28840,7 @@
         <v>43153</v>
       </c>
       <c r="E508" s="5">
-        <f>FLOOR(B508-D508,1/24)</f>
+        <f t="shared" si="7"/>
         <v>0.41666666666666663</v>
       </c>
       <c r="F508" s="1" t="s">
@@ -28892,7 +28892,7 @@
         <v>43209</v>
       </c>
       <c r="E509" s="5">
-        <f>FLOOR(B509-D509,1/24)</f>
+        <f t="shared" si="7"/>
         <v>0.41666666666666663</v>
       </c>
       <c r="F509" s="1" t="s">
@@ -28929,7 +28929,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="510" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A510" s="1">
         <v>264</v>
       </c>
@@ -28944,7 +28944,7 @@
         <v>42943</v>
       </c>
       <c r="E510" s="5">
-        <f>FLOOR(B510-D510,1/24)</f>
+        <f t="shared" si="7"/>
         <v>0.41666666666666663</v>
       </c>
       <c r="F510" s="1" t="s">
@@ -28981,7 +28981,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="511" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A511" s="1">
         <v>633</v>
       </c>
@@ -28996,7 +28996,7 @@
         <v>43258</v>
       </c>
       <c r="E511" s="5">
-        <f>FLOOR(B511-D511,1/24)</f>
+        <f t="shared" si="7"/>
         <v>0.41666666666666663</v>
       </c>
       <c r="F511" s="1" t="s">
@@ -29033,7 +29033,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="512" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A512" s="1">
         <v>578</v>
       </c>
@@ -29048,7 +29048,7 @@
         <v>43181</v>
       </c>
       <c r="E512" s="5">
-        <f>FLOOR(B512-D512,1/24)</f>
+        <f t="shared" si="7"/>
         <v>0.41666666666666663</v>
       </c>
       <c r="F512" s="1" t="s">
@@ -29085,7 +29085,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="513" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A513" s="1">
         <v>180</v>
       </c>
@@ -29100,7 +29100,7 @@
         <v>42887</v>
       </c>
       <c r="E513" s="5">
-        <f>FLOOR(B513-D513,1/24)</f>
+        <f t="shared" si="7"/>
         <v>0.41666666666666663</v>
       </c>
       <c r="F513" s="1" t="s">
@@ -29137,7 +29137,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="514" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A514" s="1">
         <v>265</v>
       </c>
@@ -29152,7 +29152,7 @@
         <v>42943</v>
       </c>
       <c r="E514" s="5">
-        <f>FLOOR(B514-D514,1/24)</f>
+        <f t="shared" ref="E514:E577" si="8">FLOOR(B514-D514,1/24)</f>
         <v>0.41666666666666663</v>
       </c>
       <c r="F514" s="1" t="s">
@@ -29204,7 +29204,7 @@
         <v>43216</v>
       </c>
       <c r="E515" s="5">
-        <f>FLOOR(B515-D515,1/24)</f>
+        <f t="shared" si="8"/>
         <v>0.41666666666666663</v>
       </c>
       <c r="F515" s="1" t="s">
@@ -29256,7 +29256,7 @@
         <v>43174</v>
       </c>
       <c r="E516" s="5">
-        <f>FLOOR(B516-D516,1/24)</f>
+        <f t="shared" si="8"/>
         <v>0.45833333333333331</v>
       </c>
       <c r="F516" s="1" t="s">
@@ -29293,7 +29293,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="517" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A517" s="1">
         <v>408</v>
       </c>
@@ -29308,7 +29308,7 @@
         <v>43069</v>
       </c>
       <c r="E517" s="5">
-        <f>FLOOR(B517-D517,1/24)</f>
+        <f t="shared" si="8"/>
         <v>0.45833333333333331</v>
       </c>
       <c r="F517" s="1" t="s">
@@ -29360,7 +29360,7 @@
         <v>43027</v>
       </c>
       <c r="E518" s="5">
-        <f>FLOOR(B518-D518,1/24)</f>
+        <f t="shared" si="8"/>
         <v>0.45833333333333331</v>
       </c>
       <c r="F518" s="1" t="s">
@@ -29397,7 +29397,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="519" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A519" s="1">
         <v>23</v>
       </c>
@@ -29412,7 +29412,7 @@
         <v>42761</v>
       </c>
       <c r="E519" s="5">
-        <f>FLOOR(B519-D519,1/24)</f>
+        <f t="shared" si="8"/>
         <v>0.45833333333333331</v>
       </c>
       <c r="F519" s="1" t="s">
@@ -29464,7 +29464,7 @@
         <v>43132</v>
       </c>
       <c r="E520" s="5">
-        <f>FLOOR(B520-D520,1/24)</f>
+        <f t="shared" si="8"/>
         <v>0.45833333333333331</v>
       </c>
       <c r="F520" s="1" t="s">
@@ -29516,7 +29516,7 @@
         <v>42964</v>
       </c>
       <c r="E521" s="5">
-        <f>FLOOR(B521-D521,1/24)</f>
+        <f t="shared" si="8"/>
         <v>0.5</v>
       </c>
       <c r="F521" s="1" t="s">
@@ -29553,7 +29553,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="522" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A522" s="1">
         <v>316</v>
       </c>
@@ -29568,7 +29568,7 @@
         <v>42985</v>
       </c>
       <c r="E522" s="5">
-        <f>FLOOR(B522-D522,1/24)</f>
+        <f t="shared" si="8"/>
         <v>0.5</v>
       </c>
       <c r="F522" s="1" t="s">
@@ -29620,7 +29620,7 @@
         <v>43195</v>
       </c>
       <c r="E523" s="5">
-        <f>FLOOR(B523-D523,1/24)</f>
+        <f t="shared" si="8"/>
         <v>0.5</v>
       </c>
       <c r="F523" s="1" t="s">
@@ -29672,7 +29672,7 @@
         <v>42845</v>
       </c>
       <c r="E524" s="5">
-        <f>FLOOR(B524-D524,1/24)</f>
+        <f t="shared" si="8"/>
         <v>0.5</v>
       </c>
       <c r="F524" s="1" t="s">
@@ -29709,7 +29709,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="525" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A525" s="1">
         <v>624</v>
       </c>
@@ -29724,7 +29724,7 @@
         <v>43251</v>
       </c>
       <c r="E525" s="5">
-        <f>FLOOR(B525-D525,1/24)</f>
+        <f t="shared" si="8"/>
         <v>0.54166666666666663</v>
       </c>
       <c r="F525" s="1" t="s">
@@ -29761,7 +29761,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="526" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A526" s="1">
         <v>232</v>
       </c>
@@ -29776,7 +29776,7 @@
         <v>42922</v>
       </c>
       <c r="E526" s="5">
-        <f>FLOOR(B526-D526,1/24)</f>
+        <f t="shared" si="8"/>
         <v>0.54166666666666663</v>
       </c>
       <c r="F526" s="1" t="s">
@@ -29813,7 +29813,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="527" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A527" s="1">
         <v>57</v>
       </c>
@@ -29828,7 +29828,7 @@
         <v>42789</v>
       </c>
       <c r="E527" s="5">
-        <f>FLOOR(B527-D527,1/24)</f>
+        <f t="shared" si="8"/>
         <v>0.54166666666666663</v>
       </c>
       <c r="F527" s="1" t="s">
@@ -29880,7 +29880,7 @@
         <v>43097</v>
       </c>
       <c r="E528" s="5">
-        <f>FLOOR(B528-D528,1/24)</f>
+        <f t="shared" si="8"/>
         <v>0.54166666666666663</v>
       </c>
       <c r="F528" s="1" t="s">
@@ -29917,7 +29917,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="529" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A529" s="1">
         <v>544</v>
       </c>
@@ -29932,7 +29932,7 @@
         <v>43160</v>
       </c>
       <c r="E529" s="5">
-        <f>FLOOR(B529-D529,1/24)</f>
+        <f t="shared" si="8"/>
         <v>0.58333333333333326</v>
       </c>
       <c r="F529" s="1" t="s">
@@ -29969,7 +29969,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="530" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A530" s="1">
         <v>167</v>
       </c>
@@ -29984,7 +29984,7 @@
         <v>42873</v>
       </c>
       <c r="E530" s="5">
-        <f>FLOOR(B530-D530,1/24)</f>
+        <f t="shared" si="8"/>
         <v>0.58333333333333326</v>
       </c>
       <c r="F530" s="1" t="s">
@@ -30036,7 +30036,7 @@
         <v>43202</v>
       </c>
       <c r="E531" s="5">
-        <f>FLOOR(B531-D531,1/24)</f>
+        <f t="shared" si="8"/>
         <v>0.58333333333333326</v>
       </c>
       <c r="F531" s="1" t="s">
@@ -30073,7 +30073,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="532" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A532" s="1">
         <v>435</v>
       </c>
@@ -30088,7 +30088,7 @@
         <v>43097</v>
       </c>
       <c r="E532" s="5">
-        <f>FLOOR(B532-D532,1/24)</f>
+        <f t="shared" si="8"/>
         <v>0.58333333333333326</v>
       </c>
       <c r="F532" s="1" t="s">
@@ -30140,7 +30140,7 @@
         <v>43174</v>
       </c>
       <c r="E533" s="5">
-        <f>FLOOR(B533-D533,1/24)</f>
+        <f t="shared" si="8"/>
         <v>0.58333333333333326</v>
       </c>
       <c r="F533" s="1" t="s">
@@ -30177,7 +30177,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="534" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A534" s="1">
         <v>307</v>
       </c>
@@ -30192,7 +30192,7 @@
         <v>42978</v>
       </c>
       <c r="E534" s="5">
-        <f>FLOOR(B534-D534,1/24)</f>
+        <f t="shared" si="8"/>
         <v>0.58333333333333326</v>
       </c>
       <c r="F534" s="1" t="s">
@@ -30229,7 +30229,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="535" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A535" s="1">
         <v>58</v>
       </c>
@@ -30244,7 +30244,7 @@
         <v>42789</v>
       </c>
       <c r="E535" s="5">
-        <f>FLOOR(B535-D535,1/24)</f>
+        <f t="shared" si="8"/>
         <v>0.58333333333333326</v>
       </c>
       <c r="F535" s="1" t="s">
@@ -30281,7 +30281,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="536" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A536" s="1">
         <v>396</v>
       </c>
@@ -30296,7 +30296,7 @@
         <v>43062</v>
       </c>
       <c r="E536" s="5">
-        <f>FLOOR(B536-D536,1/24)</f>
+        <f t="shared" si="8"/>
         <v>0.58333333333333326</v>
       </c>
       <c r="F536" s="1" t="s">
@@ -30348,7 +30348,7 @@
         <v>43216</v>
       </c>
       <c r="E537" s="5">
-        <f>FLOOR(B537-D537,1/24)</f>
+        <f t="shared" si="8"/>
         <v>0.58333333333333326</v>
       </c>
       <c r="F537" s="1" t="s">
@@ -30385,7 +30385,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="538" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A538" s="1">
         <v>482</v>
       </c>
@@ -30400,7 +30400,7 @@
         <v>43146</v>
       </c>
       <c r="E538" s="5">
-        <f>FLOOR(B538-D538,1/24)</f>
+        <f t="shared" si="8"/>
         <v>0.625</v>
       </c>
       <c r="F538" s="1" t="s">
@@ -30452,7 +30452,7 @@
         <v>43174</v>
       </c>
       <c r="E539" s="5">
-        <f>FLOOR(B539-D539,1/24)</f>
+        <f t="shared" si="8"/>
         <v>0.625</v>
       </c>
       <c r="F539" s="1" t="s">
@@ -30489,7 +30489,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="540" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A540" s="1">
         <v>203</v>
       </c>
@@ -30504,7 +30504,7 @@
         <v>42901</v>
       </c>
       <c r="E540" s="5">
-        <f>FLOOR(B540-D540,1/24)</f>
+        <f t="shared" si="8"/>
         <v>0.625</v>
       </c>
       <c r="F540" s="1" t="s">
@@ -30556,7 +30556,7 @@
         <v>43223</v>
       </c>
       <c r="E541" s="5">
-        <f>FLOOR(B541-D541,1/24)</f>
+        <f t="shared" si="8"/>
         <v>0.625</v>
       </c>
       <c r="F541" s="1" t="s">
@@ -30593,7 +30593,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="542" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A542" s="1">
         <v>554</v>
       </c>
@@ -30608,7 +30608,7 @@
         <v>43167</v>
       </c>
       <c r="E542" s="5">
-        <f>FLOOR(B542-D542,1/24)</f>
+        <f t="shared" si="8"/>
         <v>0.625</v>
       </c>
       <c r="F542" s="1" t="s">
@@ -30660,7 +30660,7 @@
         <v>43230</v>
       </c>
       <c r="E543" s="5">
-        <f>FLOOR(B543-D543,1/24)</f>
+        <f t="shared" si="8"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="F543" s="1" t="s">
@@ -30697,7 +30697,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="544" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A544" s="1">
         <v>517</v>
       </c>
@@ -30712,7 +30712,7 @@
         <v>43202</v>
       </c>
       <c r="E544" s="5">
-        <f>FLOOR(B544-D544,1/24)</f>
+        <f t="shared" si="8"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="F544" s="1" t="s">
@@ -30764,7 +30764,7 @@
         <v>42964</v>
       </c>
       <c r="E545" s="5">
-        <f>FLOOR(B545-D545,1/24)</f>
+        <f t="shared" si="8"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="F545" s="1" t="s">
@@ -30801,7 +30801,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="546" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A546" s="1">
         <v>59</v>
       </c>
@@ -30816,7 +30816,7 @@
         <v>42789</v>
       </c>
       <c r="E546" s="5">
-        <f>FLOOR(B546-D546,1/24)</f>
+        <f t="shared" si="8"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="F546" s="1" t="s">
@@ -30853,7 +30853,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="547" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A547" s="1">
         <v>279</v>
       </c>
@@ -30868,7 +30868,7 @@
         <v>42950</v>
       </c>
       <c r="E547" s="5">
-        <f>FLOOR(B547-D547,1/24)</f>
+        <f t="shared" si="8"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="F547" s="1" t="s">
@@ -30905,7 +30905,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="548" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A548" s="1">
         <v>143</v>
       </c>
@@ -30920,7 +30920,7 @@
         <v>42859</v>
       </c>
       <c r="E548" s="5">
-        <f>FLOOR(B548-D548,1/24)</f>
+        <f t="shared" si="8"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="F548" s="1" t="s">
@@ -30957,7 +30957,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="549" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A549" s="1">
         <v>375</v>
       </c>
@@ -30972,7 +30972,7 @@
         <v>43041</v>
       </c>
       <c r="E549" s="5">
-        <f>FLOOR(B549-D549,1/24)</f>
+        <f t="shared" si="8"/>
         <v>0.70833333333333326</v>
       </c>
       <c r="F549" s="1" t="s">
@@ -31024,7 +31024,7 @@
         <v>43097</v>
       </c>
       <c r="E550" s="5">
-        <f>FLOOR(B550-D550,1/24)</f>
+        <f t="shared" si="8"/>
         <v>0.70833333333333326</v>
       </c>
       <c r="F550" s="1" t="s">
@@ -31061,7 +31061,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="551" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A551" s="1">
         <v>448</v>
       </c>
@@ -31076,7 +31076,7 @@
         <v>43104</v>
       </c>
       <c r="E551" s="5">
-        <f>FLOOR(B551-D551,1/24)</f>
+        <f t="shared" si="8"/>
         <v>0.70833333333333326</v>
       </c>
       <c r="F551" s="1" t="s">
@@ -31128,7 +31128,7 @@
         <v>42768</v>
       </c>
       <c r="E552" s="5">
-        <f>FLOOR(B552-D552,1/24)</f>
+        <f t="shared" si="8"/>
         <v>0.75</v>
       </c>
       <c r="F552" s="1" t="s">
@@ -31165,7 +31165,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="553" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A553" s="1">
         <v>47</v>
       </c>
@@ -31180,7 +31180,7 @@
         <v>42782</v>
       </c>
       <c r="E553" s="5">
-        <f>FLOOR(B553-D553,1/24)</f>
+        <f t="shared" si="8"/>
         <v>0.75</v>
       </c>
       <c r="F553" s="1" t="s">
@@ -31232,7 +31232,7 @@
         <v>43167</v>
       </c>
       <c r="E554" s="5">
-        <f>FLOOR(B554-D554,1/24)</f>
+        <f t="shared" si="8"/>
         <v>0.75</v>
       </c>
       <c r="F554" s="1" t="s">
@@ -31284,7 +31284,7 @@
         <v>43265</v>
       </c>
       <c r="E555" s="5">
-        <f>FLOOR(B555-D555,1/24)</f>
+        <f t="shared" si="8"/>
         <v>0.75</v>
       </c>
       <c r="F555" s="1" t="s">
@@ -31336,7 +31336,7 @@
         <v>42775</v>
       </c>
       <c r="E556" s="5">
-        <f>FLOOR(B556-D556,1/24)</f>
+        <f t="shared" si="8"/>
         <v>0.75</v>
       </c>
       <c r="F556" s="1" t="s">
@@ -31373,7 +31373,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="557" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A557" s="1">
         <v>479</v>
       </c>
@@ -31388,7 +31388,7 @@
         <v>43139</v>
       </c>
       <c r="E557" s="5">
-        <f>FLOOR(B557-D557,1/24)</f>
+        <f t="shared" si="8"/>
         <v>0.75</v>
       </c>
       <c r="F557" s="1" t="s">
@@ -31440,7 +31440,7 @@
         <v>42852</v>
       </c>
       <c r="E558" s="5">
-        <f>FLOOR(B558-D558,1/24)</f>
+        <f t="shared" si="8"/>
         <v>0.75</v>
       </c>
       <c r="F558" s="1" t="s">
@@ -31477,7 +31477,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="559" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A559" s="1">
         <v>397</v>
       </c>
@@ -31492,7 +31492,7 @@
         <v>43062</v>
       </c>
       <c r="E559" s="5">
-        <f>FLOOR(B559-D559,1/24)</f>
+        <f t="shared" si="8"/>
         <v>0.79166666666666663</v>
       </c>
       <c r="F559" s="1" t="s">
@@ -31544,7 +31544,7 @@
         <v>42936</v>
       </c>
       <c r="E560" s="5">
-        <f>FLOOR(B560-D560,1/24)</f>
+        <f t="shared" si="8"/>
         <v>0.79166666666666663</v>
       </c>
       <c r="F560" s="1" t="s">
@@ -31581,7 +31581,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="561" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A561" s="1">
         <v>329</v>
       </c>
@@ -31596,7 +31596,7 @@
         <v>42999</v>
       </c>
       <c r="E561" s="5">
-        <f>FLOOR(B561-D561,1/24)</f>
+        <f t="shared" si="8"/>
         <v>0.79166666666666663</v>
       </c>
       <c r="F561" s="1" t="s">
@@ -31648,7 +31648,7 @@
         <v>42747</v>
       </c>
       <c r="E562" s="5">
-        <f>FLOOR(B562-D562,1/24)</f>
+        <f t="shared" si="8"/>
         <v>0.79166666666666663</v>
       </c>
       <c r="F562" s="1" t="s">
@@ -31700,7 +31700,7 @@
         <v>42887</v>
       </c>
       <c r="E563" s="5">
-        <f>FLOOR(B563-D563,1/24)</f>
+        <f t="shared" si="8"/>
         <v>0.79166666666666663</v>
       </c>
       <c r="F563" s="1" t="s">
@@ -31737,7 +31737,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="564" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A564" s="1">
         <v>102</v>
       </c>
@@ -31752,7 +31752,7 @@
         <v>42831</v>
       </c>
       <c r="E564" s="5">
-        <f>FLOOR(B564-D564,1/24)</f>
+        <f t="shared" si="8"/>
         <v>0.83333333333333326</v>
       </c>
       <c r="F564" s="1" t="s">
@@ -31789,7 +31789,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="565" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A565" s="1">
         <v>266</v>
       </c>
@@ -31804,7 +31804,7 @@
         <v>42943</v>
       </c>
       <c r="E565" s="5">
-        <f>FLOOR(B565-D565,1/24)</f>
+        <f t="shared" si="8"/>
         <v>0.83333333333333326</v>
       </c>
       <c r="F565" s="1" t="s">
@@ -31856,7 +31856,7 @@
         <v>42845</v>
       </c>
       <c r="E566" s="5">
-        <f>FLOOR(B566-D566,1/24)</f>
+        <f t="shared" si="8"/>
         <v>0.83333333333333326</v>
       </c>
       <c r="F566" s="1" t="s">
@@ -31893,7 +31893,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="567" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A567" s="1">
         <v>601</v>
       </c>
@@ -31908,7 +31908,7 @@
         <v>43230</v>
       </c>
       <c r="E567" s="5">
-        <f>FLOOR(B567-D567,1/24)</f>
+        <f t="shared" si="8"/>
         <v>0.83333333333333326</v>
       </c>
       <c r="F567" s="1" t="s">
@@ -31945,7 +31945,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="568" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A568" s="1">
         <v>267</v>
       </c>
@@ -31960,7 +31960,7 @@
         <v>42943</v>
       </c>
       <c r="E568" s="5">
-        <f>FLOOR(B568-D568,1/24)</f>
+        <f t="shared" si="8"/>
         <v>0.875</v>
       </c>
       <c r="F568" s="1" t="s">
@@ -32012,7 +32012,7 @@
         <v>42747</v>
       </c>
       <c r="E569" s="5">
-        <f>FLOOR(B569-D569,1/24)</f>
+        <f t="shared" si="8"/>
         <v>0.91666666666666663</v>
       </c>
       <c r="F569" s="1" t="s">
@@ -32049,7 +32049,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="570" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A570" s="1">
         <v>437</v>
       </c>
@@ -32064,7 +32064,7 @@
         <v>43097</v>
       </c>
       <c r="E570" s="5">
-        <f>FLOOR(B570-D570,1/24)</f>
+        <f t="shared" si="8"/>
         <v>0.91666666666666663</v>
       </c>
       <c r="F570" s="1" t="s">
@@ -32101,7 +32101,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="571" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A571" s="1">
         <v>346</v>
       </c>
@@ -32116,7 +32116,7 @@
         <v>43013</v>
       </c>
       <c r="E571" s="5">
-        <f>FLOOR(B571-D571,1/24)</f>
+        <f t="shared" si="8"/>
         <v>0.91666666666666663</v>
       </c>
       <c r="F571" s="1" t="s">
@@ -32153,7 +32153,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="572" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A572" s="1">
         <v>602</v>
       </c>
@@ -32168,7 +32168,7 @@
         <v>43230</v>
       </c>
       <c r="E572" s="5">
-        <f>FLOOR(B572-D572,1/24)</f>
+        <f t="shared" si="8"/>
         <v>0.91666666666666663</v>
       </c>
       <c r="F572" s="1" t="s">
@@ -32205,7 +32205,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="573" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A573" s="1">
         <v>459</v>
       </c>
@@ -32220,7 +32220,7 @@
         <v>43118</v>
       </c>
       <c r="E573" s="5">
-        <f>FLOOR(B573-D573,1/24)</f>
+        <f t="shared" si="8"/>
         <v>0.91666666666666663</v>
       </c>
       <c r="F573" s="1" t="s">
@@ -32257,7 +32257,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="574" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A574" s="1">
         <v>363</v>
       </c>
@@ -32272,7 +32272,7 @@
         <v>43027</v>
       </c>
       <c r="E574" s="5">
-        <f>FLOOR(B574-D574,1/24)</f>
+        <f t="shared" si="8"/>
         <v>0.95833333333333326</v>
       </c>
       <c r="F574" s="1" t="s">
@@ -32324,7 +32324,7 @@
         <v>43146</v>
       </c>
       <c r="E575" s="5">
-        <f>FLOOR(B575-D575,1/24)</f>
+        <f t="shared" si="8"/>
         <v>0.95833333333333326</v>
       </c>
       <c r="F575" s="1" t="s">
@@ -32361,7 +32361,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="576" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A576" s="1">
         <v>488</v>
       </c>
@@ -32376,7 +32376,7 @@
         <v>43153</v>
       </c>
       <c r="E576" s="5">
-        <f>FLOOR(B576-D576,1/24)</f>
+        <f t="shared" si="8"/>
         <v>0.95833333333333326</v>
       </c>
       <c r="F576" s="1" t="s">
@@ -32428,7 +32428,7 @@
         <v>43238</v>
       </c>
       <c r="E577" s="5">
-        <f>FLOOR(B577-D577,1/24)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F577" s="1" t="s">
@@ -32480,7 +32480,7 @@
         <v>43196</v>
       </c>
       <c r="E578" s="5">
-        <f>FLOOR(B578-D578,1/24)</f>
+        <f t="shared" ref="E578:E641" si="9">FLOOR(B578-D578,1/24)</f>
         <v>0</v>
       </c>
       <c r="F578" s="1" t="s">
@@ -32517,7 +32517,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="579" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A579" s="1">
         <v>415</v>
       </c>
@@ -32532,7 +32532,7 @@
         <v>43077</v>
       </c>
       <c r="E579" s="5">
-        <f>FLOOR(B579-D579,1/24)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F579" s="1" t="s">
@@ -32584,7 +32584,7 @@
         <v>42944</v>
       </c>
       <c r="E580" s="5">
-        <f>FLOOR(B580-D580,1/24)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F580" s="1" t="s">
@@ -32636,7 +32636,7 @@
         <v>43021</v>
       </c>
       <c r="E581" s="5">
-        <f>FLOOR(B581-D581,1/24)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F581" s="1" t="s">
@@ -32688,7 +32688,7 @@
         <v>42797</v>
       </c>
       <c r="E582" s="5">
-        <f>FLOOR(B582-D582,1/24)</f>
+        <f t="shared" si="9"/>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F582" s="1" t="s">
@@ -32740,7 +32740,7 @@
         <v>43077</v>
       </c>
       <c r="E583" s="5">
-        <f>FLOOR(B583-D583,1/24)</f>
+        <f t="shared" si="9"/>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F583" s="1" t="s">
@@ -32792,7 +32792,7 @@
         <v>42769</v>
       </c>
       <c r="E584" s="5">
-        <f>FLOOR(B584-D584,1/24)</f>
+        <f t="shared" si="9"/>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F584" s="1" t="s">
@@ -32844,7 +32844,7 @@
         <v>43056</v>
       </c>
       <c r="E585" s="5">
-        <f>FLOOR(B585-D585,1/24)</f>
+        <f t="shared" si="9"/>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F585" s="1" t="s">
@@ -32896,7 +32896,7 @@
         <v>43217</v>
       </c>
       <c r="E586" s="5">
-        <f>FLOOR(B586-D586,1/24)</f>
+        <f t="shared" si="9"/>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F586" s="1" t="s">
@@ -32948,7 +32948,7 @@
         <v>43161</v>
       </c>
       <c r="E587" s="5">
-        <f>FLOOR(B587-D587,1/24)</f>
+        <f t="shared" si="9"/>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="F587" s="1" t="s">
@@ -33000,7 +33000,7 @@
         <v>43161</v>
       </c>
       <c r="E588" s="5">
-        <f>FLOOR(B588-D588,1/24)</f>
+        <f t="shared" si="9"/>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="F588" s="1" t="s">
@@ -33052,7 +33052,7 @@
         <v>42783</v>
       </c>
       <c r="E589" s="5">
-        <f>FLOOR(B589-D589,1/24)</f>
+        <f t="shared" si="9"/>
         <v>0.125</v>
       </c>
       <c r="F589" s="1" t="s">
@@ -33104,7 +33104,7 @@
         <v>43070</v>
       </c>
       <c r="E590" s="5">
-        <f>FLOOR(B590-D590,1/24)</f>
+        <f t="shared" si="9"/>
         <v>0.125</v>
       </c>
       <c r="F590" s="1" t="s">
@@ -33156,7 +33156,7 @@
         <v>42867</v>
       </c>
       <c r="E591" s="5">
-        <f>FLOOR(B591-D591,1/24)</f>
+        <f t="shared" si="9"/>
         <v>0.125</v>
       </c>
       <c r="F591" s="1" t="s">
@@ -33208,7 +33208,7 @@
         <v>42769</v>
       </c>
       <c r="E592" s="5">
-        <f>FLOOR(B592-D592,1/24)</f>
+        <f t="shared" si="9"/>
         <v>0.125</v>
       </c>
       <c r="F592" s="1" t="s">
@@ -33260,7 +33260,7 @@
         <v>42937</v>
       </c>
       <c r="E593" s="5">
-        <f>FLOOR(B593-D593,1/24)</f>
+        <f t="shared" si="9"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="F593" s="1" t="s">
@@ -33312,7 +33312,7 @@
         <v>42860</v>
       </c>
       <c r="E594" s="5">
-        <f>FLOOR(B594-D594,1/24)</f>
+        <f t="shared" si="9"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="F594" s="1" t="s">
@@ -33364,7 +33364,7 @@
         <v>43000</v>
       </c>
       <c r="E595" s="5">
-        <f>FLOOR(B595-D595,1/24)</f>
+        <f t="shared" si="9"/>
         <v>0.20833333333333331</v>
       </c>
       <c r="F595" s="1" t="s">
@@ -33416,7 +33416,7 @@
         <v>43182</v>
       </c>
       <c r="E596" s="5">
-        <f>FLOOR(B596-D596,1/24)</f>
+        <f t="shared" si="9"/>
         <v>0.20833333333333331</v>
       </c>
       <c r="F596" s="1" t="s">
@@ -33468,7 +33468,7 @@
         <v>42979</v>
       </c>
       <c r="E597" s="5">
-        <f>FLOOR(B597-D597,1/24)</f>
+        <f t="shared" si="9"/>
         <v>0.25</v>
       </c>
       <c r="F597" s="1" t="s">
@@ -33520,7 +33520,7 @@
         <v>43035</v>
       </c>
       <c r="E598" s="5">
-        <f>FLOOR(B598-D598,1/24)</f>
+        <f t="shared" si="9"/>
         <v>0.29166666666666663</v>
       </c>
       <c r="F598" s="1" t="s">
@@ -33572,7 +33572,7 @@
         <v>43217</v>
       </c>
       <c r="E599" s="5">
-        <f>FLOOR(B599-D599,1/24)</f>
+        <f t="shared" si="9"/>
         <v>0.29166666666666663</v>
       </c>
       <c r="F599" s="1" t="s">
@@ -33624,7 +33624,7 @@
         <v>43217</v>
       </c>
       <c r="E600" s="5">
-        <f>FLOOR(B600-D600,1/24)</f>
+        <f t="shared" si="9"/>
         <v>0.29166666666666663</v>
       </c>
       <c r="F600" s="1" t="s">
@@ -33676,7 +33676,7 @@
         <v>42818</v>
       </c>
       <c r="E601" s="5">
-        <f>FLOOR(B601-D601,1/24)</f>
+        <f t="shared" si="9"/>
         <v>0.29166666666666663</v>
       </c>
       <c r="F601" s="1" t="s">
@@ -33728,7 +33728,7 @@
         <v>43203</v>
       </c>
       <c r="E602" s="5">
-        <f>FLOOR(B602-D602,1/24)</f>
+        <f t="shared" si="9"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="F602" s="1" t="s">
@@ -33780,7 +33780,7 @@
         <v>42790</v>
       </c>
       <c r="E603" s="5">
-        <f>FLOOR(B603-D603,1/24)</f>
+        <f t="shared" si="9"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="F603" s="1" t="s">
@@ -33832,7 +33832,7 @@
         <v>43070</v>
       </c>
       <c r="E604" s="5">
-        <f>FLOOR(B604-D604,1/24)</f>
+        <f t="shared" si="9"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="F604" s="1" t="s">
@@ -33884,7 +33884,7 @@
         <v>43091</v>
       </c>
       <c r="E605" s="5">
-        <f>FLOOR(B605-D605,1/24)</f>
+        <f t="shared" si="9"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="F605" s="1" t="s">
@@ -33936,7 +33936,7 @@
         <v>43252</v>
       </c>
       <c r="E606" s="5">
-        <f>FLOOR(B606-D606,1/24)</f>
+        <f t="shared" si="9"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="F606" s="1" t="s">
@@ -33988,7 +33988,7 @@
         <v>43119</v>
       </c>
       <c r="E607" s="5">
-        <f>FLOOR(B607-D607,1/24)</f>
+        <f t="shared" si="9"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="F607" s="1" t="s">
@@ -34040,7 +34040,7 @@
         <v>43210</v>
       </c>
       <c r="E608" s="5">
-        <f>FLOOR(B608-D608,1/24)</f>
+        <f t="shared" si="9"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="F608" s="1" t="s">
@@ -34092,7 +34092,7 @@
         <v>43098</v>
       </c>
       <c r="E609" s="5">
-        <f>FLOOR(B609-D609,1/24)</f>
+        <f t="shared" si="9"/>
         <v>0.375</v>
       </c>
       <c r="F609" s="1" t="s">
@@ -34144,7 +34144,7 @@
         <v>42944</v>
       </c>
       <c r="E610" s="5">
-        <f>FLOOR(B610-D610,1/24)</f>
+        <f t="shared" si="9"/>
         <v>0.375</v>
       </c>
       <c r="F610" s="1" t="s">
@@ -34196,7 +34196,7 @@
         <v>42937</v>
       </c>
       <c r="E611" s="5">
-        <f>FLOOR(B611-D611,1/24)</f>
+        <f t="shared" si="9"/>
         <v>0.375</v>
       </c>
       <c r="F611" s="1" t="s">
@@ -34248,7 +34248,7 @@
         <v>42818</v>
       </c>
       <c r="E612" s="5">
-        <f>FLOOR(B612-D612,1/24)</f>
+        <f t="shared" si="9"/>
         <v>0.41666666666666663</v>
       </c>
       <c r="F612" s="1" t="s">
@@ -34300,7 +34300,7 @@
         <v>42762</v>
       </c>
       <c r="E613" s="5">
-        <f>FLOOR(B613-D613,1/24)</f>
+        <f t="shared" si="9"/>
         <v>0.41666666666666663</v>
       </c>
       <c r="F613" s="1" t="s">
@@ -34352,7 +34352,7 @@
         <v>43042</v>
       </c>
       <c r="E614" s="5">
-        <f>FLOOR(B614-D614,1/24)</f>
+        <f t="shared" si="9"/>
         <v>0.41666666666666663</v>
       </c>
       <c r="F614" s="1" t="s">
@@ -34404,7 +34404,7 @@
         <v>43119</v>
       </c>
       <c r="E615" s="5">
-        <f>FLOOR(B615-D615,1/24)</f>
+        <f t="shared" si="9"/>
         <v>0.41666666666666663</v>
       </c>
       <c r="F615" s="1" t="s">
@@ -34456,7 +34456,7 @@
         <v>43063</v>
       </c>
       <c r="E616" s="5">
-        <f>FLOOR(B616-D616,1/24)</f>
+        <f t="shared" si="9"/>
         <v>0.41666666666666663</v>
       </c>
       <c r="F616" s="1" t="s">
@@ -34508,7 +34508,7 @@
         <v>42825</v>
       </c>
       <c r="E617" s="5">
-        <f>FLOOR(B617-D617,1/24)</f>
+        <f t="shared" si="9"/>
         <v>0.45833333333333331</v>
       </c>
       <c r="F617" s="1" t="s">
@@ -34545,7 +34545,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="618" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A618" s="1">
         <v>556</v>
       </c>
@@ -34560,7 +34560,7 @@
         <v>43168</v>
       </c>
       <c r="E618" s="5">
-        <f>FLOOR(B618-D618,1/24)</f>
+        <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
       <c r="F618" s="1" t="s">
@@ -34612,7 +34612,7 @@
         <v>42846</v>
       </c>
       <c r="E619" s="5">
-        <f>FLOOR(B619-D619,1/24)</f>
+        <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
       <c r="F619" s="1" t="s">
@@ -34664,7 +34664,7 @@
         <v>42902</v>
       </c>
       <c r="E620" s="5">
-        <f>FLOOR(B620-D620,1/24)</f>
+        <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
       <c r="F620" s="1" t="s">
@@ -34716,7 +34716,7 @@
         <v>42916</v>
       </c>
       <c r="E621" s="5">
-        <f>FLOOR(B621-D621,1/24)</f>
+        <f t="shared" si="9"/>
         <v>0.54166666666666663</v>
       </c>
       <c r="F621" s="1" t="s">
@@ -34768,7 +34768,7 @@
         <v>43189</v>
       </c>
       <c r="E622" s="5">
-        <f>FLOOR(B622-D622,1/24)</f>
+        <f t="shared" si="9"/>
         <v>0.54166666666666663</v>
       </c>
       <c r="F622" s="1" t="s">
@@ -34805,7 +34805,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="623" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A623" s="1">
         <v>538</v>
       </c>
@@ -34820,7 +34820,7 @@
         <v>43217</v>
       </c>
       <c r="E623" s="5">
-        <f>FLOOR(B623-D623,1/24)</f>
+        <f t="shared" si="9"/>
         <v>0.54166666666666663</v>
       </c>
       <c r="F623" s="1" t="s">
@@ -34872,7 +34872,7 @@
         <v>43175</v>
       </c>
       <c r="E624" s="5">
-        <f>FLOOR(B624-D624,1/24)</f>
+        <f t="shared" si="9"/>
         <v>0.54166666666666663</v>
       </c>
       <c r="F624" s="1" t="s">
@@ -34924,7 +34924,7 @@
         <v>43021</v>
       </c>
       <c r="E625" s="5">
-        <f>FLOOR(B625-D625,1/24)</f>
+        <f t="shared" si="9"/>
         <v>0.54166666666666663</v>
       </c>
       <c r="F625" s="1" t="s">
@@ -34976,7 +34976,7 @@
         <v>42916</v>
       </c>
       <c r="E626" s="5">
-        <f>FLOOR(B626-D626,1/24)</f>
+        <f t="shared" si="9"/>
         <v>0.58333333333333326</v>
       </c>
       <c r="F626" s="1" t="s">
@@ -35028,7 +35028,7 @@
         <v>43224</v>
       </c>
       <c r="E627" s="5">
-        <f>FLOOR(B627-D627,1/24)</f>
+        <f t="shared" si="9"/>
         <v>0.58333333333333326</v>
       </c>
       <c r="F627" s="1" t="s">
@@ -35080,7 +35080,7 @@
         <v>42790</v>
       </c>
       <c r="E628" s="5">
-        <f>FLOOR(B628-D628,1/24)</f>
+        <f t="shared" si="9"/>
         <v>0.58333333333333326</v>
       </c>
       <c r="F628" s="1" t="s">
@@ -35132,7 +35132,7 @@
         <v>42762</v>
       </c>
       <c r="E629" s="5">
-        <f>FLOOR(B629-D629,1/24)</f>
+        <f t="shared" si="9"/>
         <v>0.58333333333333326</v>
       </c>
       <c r="F629" s="1" t="s">
@@ -35184,7 +35184,7 @@
         <v>42867</v>
       </c>
       <c r="E630" s="5">
-        <f>FLOOR(B630-D630,1/24)</f>
+        <f t="shared" si="9"/>
         <v>0.625</v>
       </c>
       <c r="F630" s="1" t="s">
@@ -35221,7 +35221,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="631" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A631" s="1">
         <v>175</v>
       </c>
@@ -35236,7 +35236,7 @@
         <v>42881</v>
       </c>
       <c r="E631" s="5">
-        <f>FLOOR(B631-D631,1/24)</f>
+        <f t="shared" si="9"/>
         <v>0.625</v>
       </c>
       <c r="F631" s="1" t="s">
@@ -35288,7 +35288,7 @@
         <v>43203</v>
       </c>
       <c r="E632" s="5">
-        <f>FLOOR(B632-D632,1/24)</f>
+        <f t="shared" si="9"/>
         <v>0.625</v>
       </c>
       <c r="F632" s="1" t="s">
@@ -35340,7 +35340,7 @@
         <v>42993</v>
       </c>
       <c r="E633" s="5">
-        <f>FLOOR(B633-D633,1/24)</f>
+        <f t="shared" si="9"/>
         <v>0.625</v>
       </c>
       <c r="F633" s="1" t="s">
@@ -35392,7 +35392,7 @@
         <v>43182</v>
       </c>
       <c r="E634" s="5">
-        <f>FLOOR(B634-D634,1/24)</f>
+        <f t="shared" si="9"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="F634" s="1" t="s">
@@ -35444,7 +35444,7 @@
         <v>42832</v>
       </c>
       <c r="E635" s="5">
-        <f>FLOOR(B635-D635,1/24)</f>
+        <f t="shared" si="9"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="F635" s="1" t="s">
@@ -35496,7 +35496,7 @@
         <v>42769</v>
       </c>
       <c r="E636" s="5">
-        <f>FLOOR(B636-D636,1/24)</f>
+        <f t="shared" si="9"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="F636" s="1" t="s">
@@ -35533,7 +35533,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="637" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A637" s="1">
         <v>417</v>
       </c>
@@ -35548,7 +35548,7 @@
         <v>43077</v>
       </c>
       <c r="E637" s="5">
-        <f>FLOOR(B637-D637,1/24)</f>
+        <f t="shared" si="9"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="F637" s="1" t="s">
@@ -35600,7 +35600,7 @@
         <v>42930</v>
       </c>
       <c r="E638" s="5">
-        <f>FLOOR(B638-D638,1/24)</f>
+        <f t="shared" si="9"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="F638" s="1" t="s">
@@ -35652,7 +35652,7 @@
         <v>43231</v>
       </c>
       <c r="E639" s="5">
-        <f>FLOOR(B639-D639,1/24)</f>
+        <f t="shared" si="9"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="F639" s="1" t="s">
@@ -35704,7 +35704,7 @@
         <v>42923</v>
       </c>
       <c r="E640" s="5">
-        <f>FLOOR(B640-D640,1/24)</f>
+        <f t="shared" si="9"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="F640" s="1" t="s">
@@ -35756,7 +35756,7 @@
         <v>43037</v>
       </c>
       <c r="E641" s="5">
-        <f>FLOOR(B641-D641,1/24)</f>
+        <f t="shared" si="9"/>
         <v>0.875</v>
       </c>
       <c r="F641" s="1" t="s">
@@ -35808,7 +35808,7 @@
         <v>43065</v>
       </c>
       <c r="E642" s="5">
-        <f>FLOOR(B642-D642,1/24)</f>
+        <f t="shared" ref="E642:E651" si="10">FLOOR(B642-D642,1/24)</f>
         <v>0.875</v>
       </c>
       <c r="F642" s="1" t="s">
@@ -35845,7 +35845,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="643" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A643" s="1">
         <v>300</v>
       </c>
@@ -35860,7 +35860,7 @@
         <v>42974</v>
       </c>
       <c r="E643" s="5">
-        <f>FLOOR(B643-D643,1/24)</f>
+        <f t="shared" si="10"/>
         <v>0.875</v>
       </c>
       <c r="F643" s="1" t="s">
@@ -35897,7 +35897,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="644" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A644" s="1">
         <v>581</v>
       </c>
@@ -35912,7 +35912,7 @@
         <v>43184</v>
       </c>
       <c r="E644" s="5">
-        <f>FLOOR(B644-D644,1/24)</f>
+        <f t="shared" si="10"/>
         <v>0.91666666666666663</v>
       </c>
       <c r="F644" s="1" t="s">
@@ -35964,7 +35964,7 @@
         <v>43114</v>
       </c>
       <c r="E645" s="5">
-        <f>FLOOR(B645-D645,1/24)</f>
+        <f t="shared" si="10"/>
         <v>0.91666666666666663</v>
       </c>
       <c r="F645" s="1" t="s">
@@ -36016,7 +36016,7 @@
         <v>43002</v>
       </c>
       <c r="E646" s="5">
-        <f>FLOOR(B646-D646,1/24)</f>
+        <f t="shared" si="10"/>
         <v>0.91666666666666663</v>
       </c>
       <c r="F646" s="1" t="s">
@@ -36068,7 +36068,7 @@
         <v>43240</v>
       </c>
       <c r="E647" s="5">
-        <f>FLOOR(B647-D647,1/24)</f>
+        <f t="shared" si="10"/>
         <v>0.95833333333333326</v>
       </c>
       <c r="F647" s="1" t="s">
@@ -36120,7 +36120,7 @@
         <v>42918</v>
       </c>
       <c r="E648" s="5">
-        <f>FLOOR(B648-D648,1/24)</f>
+        <f t="shared" si="10"/>
         <v>0.95833333333333326</v>
       </c>
       <c r="F648" s="1" t="s">
@@ -36172,7 +36172,7 @@
         <v>42764</v>
       </c>
       <c r="E649" s="5">
-        <f>FLOOR(B649-D649,1/24)</f>
+        <f t="shared" si="10"/>
         <v>0.95833333333333326</v>
       </c>
       <c r="F649" s="1" t="s">
@@ -36224,7 +36224,7 @@
         <v>42953</v>
       </c>
       <c r="E650" s="5">
-        <f>FLOOR(B650-D650,1/24)</f>
+        <f t="shared" si="10"/>
         <v>0.95833333333333326</v>
       </c>
       <c r="F650" s="1" t="s">
@@ -36276,7 +36276,7 @@
         <v>42827</v>
       </c>
       <c r="E651" s="5">
-        <f>FLOOR(B651-D651,1/24)</f>
+        <f t="shared" si="10"/>
         <v>0.95833333333333326</v>
       </c>
       <c r="F651" s="1" t="s">
